--- a/Usage_S_1.0.6.xlsx
+++ b/Usage_S_1.0.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DCD44A-1AD0-4ADA-9F7C-4812ADD164B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E03059-FC6C-4F1D-BCD9-9EE34ABCE347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="200">
   <si>
     <t>UnSettled</t>
   </si>
@@ -593,12 +593,6 @@
     <t>29/12/2023</t>
   </si>
   <si>
-    <t>Rw - Ganjam</t>
-  </si>
-  <si>
-    <t>ABP Bangla</t>
-  </si>
-  <si>
     <t>X-Professional - (2) -X</t>
   </si>
   <si>
@@ -608,9 +602,6 @@
     <t>WL F PA</t>
   </si>
   <si>
-    <t xml:space="preserve">Umbrella </t>
-  </si>
-  <si>
     <t>SS MgX</t>
   </si>
   <si>
@@ -620,13 +611,31 @@
     <t>ErrorFix</t>
   </si>
   <si>
-    <t>Rw - Jatani</t>
-  </si>
-  <si>
     <t>Bucket</t>
   </si>
   <si>
-    <t>BSP</t>
+    <t>X-Professional - (1) -X</t>
+  </si>
+  <si>
+    <t>JDS</t>
+  </si>
+  <si>
+    <t>Rw- Ujjain</t>
+  </si>
+  <si>
+    <t>Rw - NewDelhi</t>
+  </si>
+  <si>
+    <t>Rw - Katra</t>
+  </si>
+  <si>
+    <t>Rw - JoshiMath</t>
+  </si>
+  <si>
+    <t>Rw - Railway</t>
+  </si>
+  <si>
+    <t>UmbrellaW</t>
   </si>
 </sst>
 </file>
@@ -1484,7 +1493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1948,9 +1957,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2009,6 +2015,15 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2042,82 +2057,88 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2131,27 +2152,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2442,7 +2461,7 @@
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2457,7 +2476,7 @@
     <col min="9" max="9" width="3.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" style="117" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="117" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -2479,15 +2498,15 @@
       <c r="B2" s="34">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="222">
+      <c r="C2" s="224">
         <f>B3+B4</f>
         <v>0</v>
       </c>
-      <c r="E2" s="226" t="s">
+      <c r="E2" s="228" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="227"/>
-      <c r="G2" s="228"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="230"/>
       <c r="H2" s="26" t="s">
         <v>43</v>
       </c>
@@ -2497,10 +2516,10 @@
       <c r="J2" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="L2" s="83" t="s">
+      <c r="K2" s="270" t="s">
+        <v>199</v>
+      </c>
+      <c r="L2" s="37" t="s">
         <v>153</v>
       </c>
       <c r="M2" s="33" t="s">
@@ -2536,29 +2555,29 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="222" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
       </c>
-      <c r="C3" s="223"/>
+      <c r="C3" s="225"/>
       <c r="D3" s="162" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="221"/>
+      <c r="A4" s="223"/>
       <c r="B4" s="34">
         <v>0</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="214">
+      <c r="E4" s="213">
         <v>10</v>
       </c>
-      <c r="F4" s="206"/>
+      <c r="F4" s="205"/>
       <c r="G4" s="164"/>
       <c r="H4" s="9" t="s">
         <v>1</v>
@@ -2566,20 +2585,20 @@
       <c r="I4" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="264" t="s">
-        <v>189</v>
+      <c r="J4" s="218" t="s">
+        <v>187</v>
       </c>
       <c r="K4" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="L4" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="L4" s="37" t="s">
         <v>139</v>
       </c>
       <c r="M4" s="170" t="s">
         <v>156</v>
       </c>
       <c r="N4" s="143" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="O4" s="176" t="s">
         <v>156</v>
@@ -2601,10 +2620,10 @@
       <c r="D5" s="156">
         <v>-2</v>
       </c>
-      <c r="E5" s="205">
+      <c r="E5" s="204">
         <v>20</v>
       </c>
-      <c r="F5" s="207"/>
+      <c r="F5" s="206"/>
       <c r="G5" s="126"/>
       <c r="H5" s="9" t="s">
         <v>1</v>
@@ -2612,13 +2631,13 @@
       <c r="I5" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="264" t="s">
+      <c r="J5" s="218" t="s">
         <v>165</v>
       </c>
       <c r="K5" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="L5" s="167" t="s">
+        <v>185</v>
+      </c>
+      <c r="L5" s="267" t="s">
         <v>142</v>
       </c>
       <c r="M5" s="170" t="s">
@@ -2627,10 +2646,10 @@
       <c r="N5" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="O5" s="216" t="s">
+      <c r="O5" s="215" t="s">
         <v>137</v>
       </c>
-      <c r="P5" s="198" t="s">
+      <c r="P5" s="197" t="s">
         <v>86</v>
       </c>
       <c r="Q5" s="154">
@@ -2651,7 +2670,7 @@
         <v>600</v>
       </c>
       <c r="E6" s="166"/>
-      <c r="F6" s="208"/>
+      <c r="F6" s="207"/>
       <c r="G6" s="127"/>
       <c r="H6" s="28" t="s">
         <v>102</v>
@@ -2659,15 +2678,15 @@
       <c r="I6" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="264" t="s">
+      <c r="J6" s="218" t="s">
         <v>165</v>
       </c>
       <c r="K6" s="170"/>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="M6" s="170" t="s">
-        <v>96</v>
+      <c r="M6" s="37" t="s">
+        <v>94</v>
       </c>
       <c r="N6" s="143" t="s">
         <v>120</v>
@@ -2696,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="177"/>
-      <c r="F7" s="208"/>
+      <c r="F7" s="207"/>
       <c r="G7" s="127"/>
       <c r="H7" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I7" s="104" t="s">
         <v>17</v>
@@ -2708,18 +2727,20 @@
         <v>105</v>
       </c>
       <c r="K7" s="37"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="216" t="s">
+      <c r="L7" s="216" t="s">
+        <v>152</v>
+      </c>
+      <c r="M7" s="215" t="s">
         <v>177</v>
       </c>
       <c r="N7" s="143" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="O7" s="37" t="s">
-        <v>186</v>
+        <v>47</v>
       </c>
       <c r="P7" s="37" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="154">
         <v>0.8125</v>
@@ -2735,8 +2756,8 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="213"/>
-      <c r="F8" s="209"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="208"/>
       <c r="G8" s="190"/>
       <c r="H8" s="9" t="s">
         <v>72</v>
@@ -2746,19 +2767,19 @@
       </c>
       <c r="J8" s="83"/>
       <c r="K8" s="37"/>
-      <c r="L8" s="83" t="s">
+      <c r="L8" s="37" t="s">
         <v>70</v>
       </c>
       <c r="M8" s="33" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="N8" s="143" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="O8" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="P8" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" s="188" t="s">
         <v>90</v>
       </c>
       <c r="Q8" s="154">
@@ -2779,7 +2800,7 @@
         <f>7000+B6-C2</f>
         <v>8380</v>
       </c>
-      <c r="E9" s="215">
+      <c r="E9" s="214">
         <v>14</v>
       </c>
       <c r="F9" s="165"/>
@@ -2790,26 +2811,26 @@
       <c r="I9" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="264" t="s">
+      <c r="J9" s="218" t="s">
         <v>165</v>
       </c>
       <c r="K9" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="L9" s="182" t="s">
+        <v>185</v>
+      </c>
+      <c r="L9" s="219" t="s">
         <v>163</v>
       </c>
       <c r="M9" s="176" t="s">
         <v>170</v>
       </c>
       <c r="N9" s="143" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="O9" s="37" t="s">
         <v>22</v>
       </c>
       <c r="P9" s="37" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="154">
         <v>0.63541666666666663</v>
@@ -2822,7 +2843,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="211"/>
+      <c r="E10" s="210"/>
       <c r="F10" s="165"/>
       <c r="G10" s="177"/>
       <c r="H10" s="9" t="s">
@@ -2831,20 +2852,20 @@
       <c r="I10" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="264"/>
+      <c r="J10" s="218"/>
       <c r="K10" s="37"/>
-      <c r="L10" s="83" t="s">
+      <c r="L10" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="M10" s="33"/>
+      <c r="M10" s="33" t="s">
+        <v>123</v>
+      </c>
       <c r="N10" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="O10" s="37" t="s">
-        <v>123</v>
-      </c>
+      <c r="O10" s="37"/>
       <c r="P10" s="37" t="s">
-        <v>66</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="154">
         <v>0.6875</v>
@@ -2853,7 +2874,7 @@
         <v>0.84375</v>
       </c>
       <c r="U10" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2864,10 +2885,10 @@
         <f>B9-B13</f>
         <v>-20</v>
       </c>
-      <c r="E11" s="211">
+      <c r="E11" s="210">
         <v>5</v>
       </c>
-      <c r="F11" s="210"/>
+      <c r="F11" s="209"/>
       <c r="G11" s="184"/>
       <c r="H11" s="41" t="s">
         <v>128</v>
@@ -2875,13 +2896,13 @@
       <c r="I11" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="264" t="s">
+      <c r="J11" s="218" t="s">
         <v>116</v>
       </c>
-      <c r="K11" s="263" t="s">
-        <v>192</v>
-      </c>
-      <c r="L11" s="185" t="s">
+      <c r="K11" s="217" t="s">
+        <v>189</v>
+      </c>
+      <c r="L11" s="268" t="s">
         <v>176</v>
       </c>
       <c r="M11" s="176" t="s">
@@ -2893,7 +2914,7 @@
       <c r="O11" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="P11" s="199" t="s">
+      <c r="P11" s="198" t="s">
         <v>161</v>
       </c>
       <c r="Q11" s="154">
@@ -2911,32 +2932,32 @@
     </row>
     <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="177"/>
-      <c r="F12" s="206"/>
+      <c r="F12" s="205"/>
       <c r="G12" s="164"/>
       <c r="H12" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I12" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="264" t="s">
+      <c r="J12" s="218" t="s">
         <v>172</v>
       </c>
       <c r="K12" s="37"/>
-      <c r="L12" s="268" t="s">
+      <c r="L12" s="231" t="s">
         <v>137</v>
       </c>
-      <c r="M12" s="217" t="s">
-        <v>152</v>
+      <c r="M12" s="216" t="s">
+        <v>143</v>
       </c>
       <c r="N12" s="187" t="s">
         <v>182</v>
       </c>
       <c r="O12" s="37" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="P12" s="188" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="Q12" s="154">
         <v>0.6875</v>
@@ -2963,32 +2984,34 @@
       <c r="F13" s="34"/>
       <c r="G13" s="74"/>
       <c r="H13" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I13" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="264" t="s">
-        <v>188</v>
-      </c>
-      <c r="K13" s="37"/>
-      <c r="L13" s="267"/>
+      <c r="J13" s="218" t="s">
+        <v>186</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="L13" s="232"/>
       <c r="M13" s="176" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="O13" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="N13" s="265" t="s">
-        <v>194</v>
-      </c>
-      <c r="O13" s="37" t="s">
-        <v>85</v>
-      </c>
       <c r="P13" s="188" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="154">
         <v>0.6875</v>
       </c>
-      <c r="R13" s="218"/>
+      <c r="R13" s="220"/>
       <c r="S13" s="154">
         <v>0.84375</v>
       </c>
@@ -2999,10 +3022,10 @@
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
-      <c r="E14" s="224" t="s">
+      <c r="E14" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="225"/>
+      <c r="F14" s="227"/>
       <c r="G14" s="189"/>
       <c r="H14" s="9">
         <f>SUM(E4:G13)</f>
@@ -3010,10 +3033,10 @@
       </c>
       <c r="J14" s="119"/>
       <c r="K14" s="20"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="266"/>
-      <c r="Q14" s="266"/>
-      <c r="R14" s="218"/>
+      <c r="L14" s="20"/>
+      <c r="M14"/>
+      <c r="Q14"/>
+      <c r="R14" s="220"/>
     </row>
     <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -3029,11 +3052,11 @@
       <c r="G15" s="20"/>
       <c r="J15" s="119"/>
       <c r="K15" s="20"/>
-      <c r="L15" s="197"/>
-      <c r="M15" s="266"/>
+      <c r="L15" s="269"/>
+      <c r="M15"/>
       <c r="N15" s="119"/>
-      <c r="Q15" s="266"/>
-      <c r="R15" s="218"/>
+      <c r="Q15"/>
+      <c r="R15" s="220"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -3043,7 +3066,7 @@
       <c r="G16" s="20"/>
       <c r="J16" s="119"/>
       <c r="K16" s="20"/>
-      <c r="L16" s="119"/>
+      <c r="L16" s="20"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="25"/>
@@ -3053,9 +3076,9 @@
       <c r="G17" s="20"/>
       <c r="J17" s="119"/>
       <c r="K17" s="20"/>
-      <c r="L17" s="119"/>
-      <c r="Q17" s="219"/>
-      <c r="R17" s="218"/>
+      <c r="L17" s="20"/>
+      <c r="Q17" s="221"/>
+      <c r="R17" s="220"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -3071,13 +3094,13 @@
       <c r="G18" s="20"/>
       <c r="J18" s="119"/>
       <c r="K18" s="20"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="218"/>
-      <c r="Q18" s="219"/>
-      <c r="R18" s="218"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="220"/>
+      <c r="Q18" s="221"/>
+      <c r="R18" s="220"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M19" s="218"/>
+      <c r="M19" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3124,18 +3147,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="245" t="s">
+      <c r="E1" s="233" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="246"/>
+      <c r="F1" s="234"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="245" t="s">
+      <c r="H1" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="247"/>
-      <c r="J1" s="246"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="234"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -3153,7 +3176,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="232">
+      <c r="B2" s="236">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -3180,15 +3203,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="248">
+      <c r="K2" s="239">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="250">
+      <c r="L2" s="241">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="235">
+      <c r="M2" s="245">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -3199,7 +3222,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="234"/>
+      <c r="B3" s="237"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -3214,13 +3237,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="251"/>
-      <c r="M3" s="236"/>
+      <c r="K3" s="240"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="246"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="233"/>
+      <c r="B4" s="238"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -3235,9 +3258,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="249"/>
-      <c r="L4" s="251"/>
-      <c r="M4" s="236"/>
+      <c r="K4" s="240"/>
+      <c r="L4" s="242"/>
+      <c r="M4" s="246"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -3319,7 +3342,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="237">
+      <c r="B7" s="247">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -3336,22 +3359,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="239">
+      <c r="K7" s="249">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="241">
+      <c r="L7" s="251">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="243">
+      <c r="M7" s="253">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="238"/>
+      <c r="B8" s="248"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -3372,9 +3395,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="240"/>
-      <c r="L8" s="242"/>
-      <c r="M8" s="244"/>
+      <c r="K8" s="250"/>
+      <c r="L8" s="252"/>
+      <c r="M8" s="254"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3454,7 +3477,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="237">
+      <c r="B11" s="247">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3481,7 +3504,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="238"/>
+      <c r="B12" s="248"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3538,7 +3561,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="237">
+      <c r="B14" s="247">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3561,7 +3584,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="238"/>
+      <c r="B15" s="248"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3585,7 +3608,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="232">
+      <c r="B16" s="236">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3616,7 +3639,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="234"/>
+      <c r="B17" s="237"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3634,7 +3657,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="232">
+      <c r="B18" s="236">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3663,7 +3686,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="233"/>
+      <c r="B19" s="238"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3723,7 +3746,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="230">
+      <c r="B21" s="243">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3751,7 +3774,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="231"/>
+      <c r="B22" s="244"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3803,7 +3826,7 @@
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="222">
+      <c r="B24" s="224">
         <v>16</v>
       </c>
       <c r="C24" s="141"/>
@@ -3832,7 +3855,7 @@
       <c r="A25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="223"/>
+      <c r="B25" s="225"/>
       <c r="C25" s="142"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -3860,7 +3883,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="222">
+      <c r="B26" s="224">
         <v>17</v>
       </c>
       <c r="C26" s="161"/>
@@ -3891,7 +3914,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="229"/>
+      <c r="B27" s="255"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3922,7 +3945,7 @@
       <c r="A28" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="222">
+      <c r="B28" s="224">
         <v>18</v>
       </c>
       <c r="C28" s="141"/>
@@ -3944,7 +3967,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="223"/>
+      <c r="B29" s="225"/>
       <c r="C29" s="142"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3970,7 +3993,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="222">
+      <c r="B30" s="224">
         <v>19</v>
       </c>
       <c r="C30" s="142"/>
@@ -3993,7 +4016,7 @@
       <c r="A31" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="223"/>
+      <c r="B31" s="225"/>
       <c r="C31" s="142"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -4020,7 +4043,7 @@
       <c r="A32" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="222">
+      <c r="B32" s="224">
         <v>20</v>
       </c>
       <c r="C32" s="142"/>
@@ -4042,7 +4065,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="223"/>
+      <c r="B33" s="225"/>
       <c r="C33" s="142"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -4095,7 +4118,7 @@
       <c r="M34" s="82"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="222">
+      <c r="B35" s="224">
         <v>22</v>
       </c>
       <c r="C35" s="96"/>
@@ -4122,7 +4145,7 @@
       <c r="A36" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="223"/>
+      <c r="B36" s="225"/>
       <c r="C36" s="142"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -4144,7 +4167,7 @@
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="222">
+      <c r="B37" s="224">
         <v>23</v>
       </c>
       <c r="C37" s="142"/>
@@ -4177,7 +4200,7 @@
       <c r="A38" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="223"/>
+      <c r="B38" s="225"/>
       <c r="C38" s="96"/>
       <c r="D38" s="82"/>
       <c r="E38" s="82"/>
@@ -4195,7 +4218,7 @@
       <c r="M38" s="82"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="222">
+      <c r="B39" s="224">
         <v>24</v>
       </c>
       <c r="C39" s="142"/>
@@ -4222,7 +4245,7 @@
       <c r="A40" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="229"/>
+      <c r="B40" s="255"/>
       <c r="C40" s="96"/>
       <c r="D40" s="82">
         <v>210</v>
@@ -4250,7 +4273,7 @@
       <c r="M40" s="82"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="222">
+      <c r="B41" s="224">
         <v>25</v>
       </c>
       <c r="C41" s="142"/>
@@ -4277,7 +4300,7 @@
       <c r="A42" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="229"/>
+      <c r="B42" s="255"/>
       <c r="C42" s="142"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -4295,7 +4318,7 @@
       <c r="M42" s="18"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="223"/>
+      <c r="B43" s="225"/>
       <c r="C43" s="142"/>
       <c r="D43" s="18">
         <v>190</v>
@@ -4324,7 +4347,7 @@
       <c r="A44" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="222">
+      <c r="B44" s="224">
         <v>26</v>
       </c>
       <c r="C44" s="142"/>
@@ -4350,7 +4373,7 @@
       <c r="M44" s="18"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="223"/>
+      <c r="B45" s="225"/>
       <c r="C45" s="142"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
@@ -4375,7 +4398,7 @@
       <c r="A46" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="222">
+      <c r="B46" s="224">
         <v>27</v>
       </c>
       <c r="C46" s="142"/>
@@ -4397,8 +4420,8 @@
       <c r="M46" s="18"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="229"/>
-      <c r="C47" s="212"/>
+      <c r="B47" s="255"/>
+      <c r="C47" s="211"/>
       <c r="D47" s="132"/>
       <c r="E47" s="132"/>
       <c r="F47" s="132"/>
@@ -4439,11 +4462,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
@@ -4455,16 +4483,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7671,10 +7694,10 @@
       <c r="CG23" s="49"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="224" t="s">
+      <c r="AG24" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="225"/>
+      <c r="AH24" s="227"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -7694,10 +7717,10 @@
       <c r="AV24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="224" t="s">
+      <c r="AZ24" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="225"/>
+      <c r="BA24" s="227"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -7717,10 +7740,10 @@
       <c r="BO24" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="224" t="s">
+      <c r="BR24" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="225"/>
+      <c r="BS24" s="227"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>
@@ -7743,10 +7766,10 @@
     </row>
     <row r="25" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="226" t="s">
+      <c r="B26" s="228" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="228"/>
+      <c r="C26" s="230"/>
       <c r="D26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7783,10 +7806,10 @@
       <c r="O26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="R26" s="226" t="s">
+      <c r="R26" s="228" t="s">
         <v>145</v>
       </c>
-      <c r="S26" s="228"/>
+      <c r="S26" s="230"/>
       <c r="T26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7823,10 +7846,10 @@
       <c r="AE26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AG26" s="226" t="s">
+      <c r="AG26" s="228" t="s">
         <v>145</v>
       </c>
-      <c r="AH26" s="228"/>
+      <c r="AH26" s="230"/>
       <c r="AI26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7863,10 +7886,10 @@
       <c r="AT26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AW26" s="226" t="s">
+      <c r="AW26" s="228" t="s">
         <v>145</v>
       </c>
-      <c r="AX26" s="228"/>
+      <c r="AX26" s="230"/>
       <c r="AY26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7903,10 +7926,10 @@
       <c r="BJ26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="BM26" s="226" t="s">
+      <c r="BM26" s="228" t="s">
         <v>145</v>
       </c>
-      <c r="BN26" s="228"/>
+      <c r="BN26" s="230"/>
       <c r="BO26" s="26" t="s">
         <v>43</v>
       </c>
@@ -8900,7 +8923,7 @@
       <c r="AW32" s="163">
         <v>25</v>
       </c>
-      <c r="AX32" s="252">
+      <c r="AX32" s="264">
         <v>70</v>
       </c>
       <c r="AY32" s="9" t="s">
@@ -8938,7 +8961,7 @@
       <c r="BM32" s="163">
         <v>50</v>
       </c>
-      <c r="BN32" s="252">
+      <c r="BN32" s="264">
         <v>20</v>
       </c>
       <c r="BO32" s="9" t="s">
@@ -9087,7 +9110,7 @@
         <v>148</v>
       </c>
       <c r="AW33" s="163"/>
-      <c r="AX33" s="253"/>
+      <c r="AX33" s="265"/>
       <c r="AY33" s="9" t="s">
         <v>71</v>
       </c>
@@ -9123,7 +9146,7 @@
       <c r="BM33" s="140">
         <v>10</v>
       </c>
-      <c r="BN33" s="253"/>
+      <c r="BN33" s="265"/>
       <c r="BO33" s="9" t="s">
         <v>71</v>
       </c>
@@ -9274,7 +9297,7 @@
         <v>148</v>
       </c>
       <c r="AW34" s="140"/>
-      <c r="AX34" s="254"/>
+      <c r="AX34" s="266"/>
       <c r="AY34" s="9" t="s">
         <v>81</v>
       </c>
@@ -9312,7 +9335,7 @@
       <c r="BM34" s="165">
         <v>70</v>
       </c>
-      <c r="BN34" s="254"/>
+      <c r="BN34" s="266"/>
       <c r="BO34" s="9" t="s">
         <v>81</v>
       </c>
@@ -9543,10 +9566,10 @@
       </c>
     </row>
     <row r="36" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="224" t="s">
+      <c r="B36" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="225"/>
+      <c r="C36" s="227"/>
       <c r="D36" s="9">
         <f>SUM(B28:C35)</f>
         <v>512</v>
@@ -9564,10 +9587,10 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
       <c r="O36" s="102"/>
-      <c r="R36" s="224" t="s">
+      <c r="R36" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="S36" s="225"/>
+      <c r="S36" s="227"/>
       <c r="T36" s="9">
         <f>SUM(R28:S35)</f>
         <v>182</v>
@@ -9585,10 +9608,10 @@
       <c r="AC36" s="65"/>
       <c r="AD36" s="65"/>
       <c r="AE36" s="102"/>
-      <c r="AG36" s="224" t="s">
+      <c r="AG36" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="AH36" s="225"/>
+      <c r="AH36" s="227"/>
       <c r="AI36" s="9">
         <f>SUM(AG28:AH35)</f>
         <v>360</v>
@@ -9606,10 +9629,10 @@
       <c r="AR36" s="65"/>
       <c r="AS36" s="65"/>
       <c r="AT36" s="102"/>
-      <c r="AW36" s="224" t="s">
+      <c r="AW36" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="AX36" s="225"/>
+      <c r="AX36" s="227"/>
       <c r="AY36" s="9">
         <f>SUM(AW28:AX35)</f>
         <v>200</v>
@@ -9627,10 +9650,10 @@
       <c r="BH36" s="65"/>
       <c r="BI36" s="65"/>
       <c r="BJ36" s="102"/>
-      <c r="BM36" s="224" t="s">
+      <c r="BM36" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="BN36" s="225"/>
+      <c r="BN36" s="227"/>
       <c r="BO36" s="9">
         <f>SUM(BM28:BN35)</f>
         <v>260</v>
@@ -9650,10 +9673,10 @@
     </row>
     <row r="37" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="226" t="s">
+      <c r="B38" s="228" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="228"/>
+      <c r="C38" s="230"/>
       <c r="D38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9693,10 +9716,10 @@
       <c r="P38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="S38" s="226" t="s">
+      <c r="S38" s="228" t="s">
         <v>145</v>
       </c>
-      <c r="T38" s="228"/>
+      <c r="T38" s="230"/>
       <c r="U38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9736,11 +9759,11 @@
       <c r="AG38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="AJ38" s="226" t="s">
+      <c r="AJ38" s="228" t="s">
         <v>145</v>
       </c>
-      <c r="AK38" s="227"/>
-      <c r="AL38" s="228"/>
+      <c r="AK38" s="229"/>
+      <c r="AL38" s="230"/>
       <c r="AM38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9781,15 +9804,15 @@
         <v>108</v>
       </c>
       <c r="AZ38" s="44"/>
-      <c r="BA38" s="200">
+      <c r="BA38" s="199">
         <f ca="1">TODAY()</f>
         <v>45288</v>
       </c>
-      <c r="BD38" s="226" t="s">
+      <c r="BD38" s="228" t="s">
         <v>145</v>
       </c>
-      <c r="BE38" s="227"/>
-      <c r="BF38" s="228"/>
+      <c r="BE38" s="229"/>
+      <c r="BF38" s="230"/>
       <c r="BG38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9829,11 +9852,11 @@
       <c r="BS38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="BW38" s="226" t="s">
+      <c r="BW38" s="228" t="s">
         <v>145</v>
       </c>
-      <c r="BX38" s="227"/>
-      <c r="BY38" s="228"/>
+      <c r="BX38" s="229"/>
+      <c r="BY38" s="230"/>
       <c r="BZ38" s="26" t="s">
         <v>43</v>
       </c>
@@ -10072,7 +10095,7 @@
       <c r="BD40" s="140">
         <v>20</v>
       </c>
-      <c r="BE40" s="206">
+      <c r="BE40" s="205">
         <v>20</v>
       </c>
       <c r="BF40" s="164"/>
@@ -10114,7 +10137,7 @@
       <c r="BW40" s="140">
         <v>25</v>
       </c>
-      <c r="BX40" s="206"/>
+      <c r="BX40" s="205"/>
       <c r="BY40" s="164"/>
       <c r="BZ40" s="9" t="s">
         <v>1</v>
@@ -10265,7 +10288,7 @@
       <c r="AS41" s="179" t="s">
         <v>137</v>
       </c>
-      <c r="AT41" s="198" t="s">
+      <c r="AT41" s="197" t="s">
         <v>86</v>
       </c>
       <c r="AU41" s="154">
@@ -10280,10 +10303,10 @@
         <v>168</v>
       </c>
       <c r="AZ41" s="49"/>
-      <c r="BD41" s="205">
+      <c r="BD41" s="204">
         <v>10</v>
       </c>
-      <c r="BE41" s="207"/>
+      <c r="BE41" s="206"/>
       <c r="BF41" s="126"/>
       <c r="BG41" s="9" t="s">
         <v>136</v>
@@ -10306,7 +10329,7 @@
       <c r="BM41" s="179" t="s">
         <v>137</v>
       </c>
-      <c r="BN41" s="198" t="s">
+      <c r="BN41" s="197" t="s">
         <v>86</v>
       </c>
       <c r="BO41" s="154">
@@ -10320,10 +10343,10 @@
       <c r="BS41" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="BW41" s="205">
+      <c r="BW41" s="204">
         <v>10</v>
       </c>
-      <c r="BX41" s="207"/>
+      <c r="BX41" s="206"/>
       <c r="BY41" s="126"/>
       <c r="BZ41" s="9" t="s">
         <v>136</v>
@@ -10346,7 +10369,7 @@
       <c r="CF41" s="179" t="s">
         <v>137</v>
       </c>
-      <c r="CG41" s="198" t="s">
+      <c r="CG41" s="197" t="s">
         <v>86</v>
       </c>
       <c r="CH41" s="154">
@@ -10488,7 +10511,7 @@
       <c r="BD42" s="166">
         <v>30</v>
       </c>
-      <c r="BE42" s="208"/>
+      <c r="BE42" s="207"/>
       <c r="BF42" s="127"/>
       <c r="BG42" s="28" t="s">
         <v>147</v>
@@ -10528,7 +10551,7 @@
       <c r="BW42" s="166">
         <v>10</v>
       </c>
-      <c r="BX42" s="208"/>
+      <c r="BX42" s="207"/>
       <c r="BY42" s="127"/>
       <c r="BZ42" s="28" t="s">
         <v>147</v>
@@ -10701,7 +10724,7 @@
       <c r="BD43" s="165">
         <v>10</v>
       </c>
-      <c r="BE43" s="208"/>
+      <c r="BE43" s="207"/>
       <c r="BF43" s="127"/>
       <c r="BG43" s="9" t="s">
         <v>9</v>
@@ -10741,7 +10764,7 @@
         <v>168</v>
       </c>
       <c r="BW43" s="165"/>
-      <c r="BX43" s="208">
+      <c r="BX43" s="207">
         <v>10</v>
       </c>
       <c r="BY43" s="127"/>
@@ -10785,7 +10808,7 @@
     </row>
     <row r="44" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="163"/>
-      <c r="C44" s="252">
+      <c r="C44" s="264">
         <v>55</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -10823,10 +10846,10 @@
       <c r="P44" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S44" s="261">
+      <c r="S44" s="257">
         <v>25</v>
       </c>
-      <c r="T44" s="252">
+      <c r="T44" s="264">
         <v>55</v>
       </c>
       <c r="U44" s="9" t="s">
@@ -10835,7 +10858,7 @@
       <c r="V44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="W44" s="255" t="s">
+      <c r="W44" s="259" t="s">
         <v>105</v>
       </c>
       <c r="X44" s="83" t="s">
@@ -10864,10 +10887,10 @@
       <c r="AG44" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="AJ44" s="261">
+      <c r="AJ44" s="257">
         <v>50</v>
       </c>
-      <c r="AK44" s="252">
+      <c r="AK44" s="264">
         <v>10</v>
       </c>
       <c r="AL44" s="190"/>
@@ -10877,7 +10900,7 @@
       <c r="AN44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="AO44" s="255" t="s">
+      <c r="AO44" s="259" t="s">
         <v>105</v>
       </c>
       <c r="AP44" s="83" t="s">
@@ -10907,10 +10930,10 @@
         <v>168</v>
       </c>
       <c r="AZ44" s="49"/>
-      <c r="BD44" s="261">
+      <c r="BD44" s="257">
         <v>50</v>
       </c>
-      <c r="BE44" s="209"/>
+      <c r="BE44" s="208"/>
       <c r="BF44" s="190"/>
       <c r="BG44" s="9" t="s">
         <v>72</v>
@@ -10918,7 +10941,7 @@
       <c r="BH44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="BI44" s="255" t="s">
+      <c r="BI44" s="259" t="s">
         <v>105</v>
       </c>
       <c r="BJ44" s="83" t="s">
@@ -10947,10 +10970,10 @@
       <c r="BS44" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="BW44" s="261">
+      <c r="BW44" s="257">
         <v>25</v>
       </c>
-      <c r="BX44" s="209"/>
+      <c r="BX44" s="208"/>
       <c r="BY44" s="190"/>
       <c r="BZ44" s="9" t="s">
         <v>72</v>
@@ -10958,7 +10981,7 @@
       <c r="CA44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="CB44" s="255" t="s">
+      <c r="CB44" s="259" t="s">
         <v>105</v>
       </c>
       <c r="CC44" s="83" t="s">
@@ -10990,7 +11013,7 @@
     </row>
     <row r="45" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="140"/>
-      <c r="C45" s="253"/>
+      <c r="C45" s="265"/>
       <c r="D45" s="9" t="s">
         <v>71</v>
       </c>
@@ -11024,15 +11047,15 @@
       <c r="P45" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S45" s="262"/>
-      <c r="T45" s="254"/>
+      <c r="S45" s="258"/>
+      <c r="T45" s="266"/>
       <c r="U45" s="9" t="s">
         <v>71</v>
       </c>
       <c r="V45" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="W45" s="256"/>
+      <c r="W45" s="260"/>
       <c r="X45" s="182" t="s">
         <v>163</v>
       </c>
@@ -11059,8 +11082,8 @@
       <c r="AG45" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="AJ45" s="262"/>
-      <c r="AK45" s="254"/>
+      <c r="AJ45" s="258"/>
+      <c r="AK45" s="266"/>
       <c r="AL45" s="191"/>
       <c r="AM45" s="9" t="s">
         <v>71</v>
@@ -11068,7 +11091,7 @@
       <c r="AN45" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="AO45" s="256"/>
+      <c r="AO45" s="260"/>
       <c r="AP45" s="182" t="s">
         <v>163</v>
       </c>
@@ -11096,7 +11119,7 @@
         <v>168</v>
       </c>
       <c r="AZ45" s="49"/>
-      <c r="BD45" s="262"/>
+      <c r="BD45" s="258"/>
       <c r="BE45" s="165">
         <v>20</v>
       </c>
@@ -11107,7 +11130,7 @@
       <c r="BH45" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="BI45" s="256"/>
+      <c r="BI45" s="260"/>
       <c r="BJ45" s="182" t="s">
         <v>163</v>
       </c>
@@ -11134,7 +11157,7 @@
       <c r="BS45" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="BW45" s="262"/>
+      <c r="BW45" s="258"/>
       <c r="BX45" s="165"/>
       <c r="BY45" s="191"/>
       <c r="BZ45" s="9" t="s">
@@ -11143,7 +11166,7 @@
       <c r="CA45" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="CB45" s="256"/>
+      <c r="CB45" s="260"/>
       <c r="CC45" s="182" t="s">
         <v>163</v>
       </c>
@@ -11173,7 +11196,7 @@
     </row>
     <row r="46" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="165"/>
-      <c r="C46" s="254"/>
+      <c r="C46" s="266"/>
       <c r="D46" s="9" t="s">
         <v>81</v>
       </c>
@@ -11299,7 +11322,7 @@
         <v>168</v>
       </c>
       <c r="AZ46" s="49"/>
-      <c r="BD46" s="205">
+      <c r="BD46" s="204">
         <v>10</v>
       </c>
       <c r="BE46" s="165">
@@ -11343,7 +11366,7 @@
       <c r="BS46" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="BW46" s="211">
+      <c r="BW46" s="210">
         <v>10</v>
       </c>
       <c r="BX46" s="165">
@@ -11501,7 +11524,7 @@
       <c r="AS47" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="AT47" s="199" t="s">
+      <c r="AT47" s="198" t="s">
         <v>161</v>
       </c>
       <c r="AU47" s="154">
@@ -11516,10 +11539,10 @@
         <v>168</v>
       </c>
       <c r="AZ47" s="49"/>
-      <c r="BD47" s="205">
+      <c r="BD47" s="204">
         <v>10</v>
       </c>
-      <c r="BE47" s="210">
+      <c r="BE47" s="209">
         <v>100</v>
       </c>
       <c r="BF47" s="184"/>
@@ -11544,7 +11567,7 @@
       <c r="BM47" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="BN47" s="199" t="s">
+      <c r="BN47" s="198" t="s">
         <v>161</v>
       </c>
       <c r="BO47" s="154">
@@ -11558,10 +11581,10 @@
       <c r="BS47" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="BW47" s="211">
+      <c r="BW47" s="210">
         <v>10</v>
       </c>
-      <c r="BX47" s="210"/>
+      <c r="BX47" s="209"/>
       <c r="BY47" s="184"/>
       <c r="BZ47" s="41" t="s">
         <v>128</v>
@@ -11584,7 +11607,7 @@
       <c r="CF47" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="CG47" s="199" t="s">
+      <c r="CG47" s="198" t="s">
         <v>161</v>
       </c>
       <c r="CH47" s="154">
@@ -11600,10 +11623,10 @@
       </c>
     </row>
     <row r="48" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="224" t="s">
+      <c r="B48" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="225"/>
+      <c r="C48" s="227"/>
       <c r="D48" s="9">
         <f>SUM(B40:C47)</f>
         <v>200</v>
@@ -11622,10 +11645,10 @@
       <c r="N48" s="65"/>
       <c r="O48" s="65"/>
       <c r="P48" s="168"/>
-      <c r="S48" s="224" t="s">
+      <c r="S48" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="225"/>
+      <c r="T48" s="227"/>
       <c r="U48" s="9">
         <f>SUM(S40:T47)</f>
         <v>296</v>
@@ -11690,7 +11713,7 @@
       <c r="BD48" s="165">
         <v>10</v>
       </c>
-      <c r="BE48" s="206">
+      <c r="BE48" s="205">
         <v>10</v>
       </c>
       <c r="BF48" s="164"/>
@@ -11730,7 +11753,7 @@
         <v>168</v>
       </c>
       <c r="BW48" s="165"/>
-      <c r="BX48" s="206">
+      <c r="BX48" s="205">
         <v>10</v>
       </c>
       <c r="BY48" s="164"/>
@@ -11778,11 +11801,11 @@
       <c r="AN49" s="25"/>
       <c r="AO49" s="119"/>
       <c r="AP49" s="119"/>
-      <c r="AQ49" s="257"/>
+      <c r="AQ49" s="261"/>
       <c r="AS49" s="192"/>
       <c r="AT49" s="2"/>
-      <c r="AU49" s="219"/>
-      <c r="AV49" s="218"/>
+      <c r="AU49" s="221"/>
+      <c r="AV49" s="220"/>
       <c r="AW49" s="1"/>
       <c r="AX49" s="1"/>
       <c r="AY49" s="24"/>
@@ -11794,11 +11817,11 @@
       <c r="BH49" s="25"/>
       <c r="BI49" s="119"/>
       <c r="BJ49" s="119"/>
-      <c r="BK49" s="257"/>
+      <c r="BK49" s="261"/>
       <c r="BM49" s="192"/>
       <c r="BN49" s="2"/>
-      <c r="BO49" s="219"/>
-      <c r="BP49" s="218"/>
+      <c r="BO49" s="221"/>
+      <c r="BP49" s="220"/>
       <c r="BQ49" s="1"/>
       <c r="BR49" s="1"/>
       <c r="BS49" s="46"/>
@@ -11809,20 +11832,20 @@
       <c r="CA49" s="25"/>
       <c r="CB49" s="119"/>
       <c r="CC49" s="119"/>
-      <c r="CD49" s="257"/>
+      <c r="CD49" s="261"/>
       <c r="CF49" s="192"/>
       <c r="CG49" s="2"/>
-      <c r="CH49" s="219"/>
-      <c r="CI49" s="218"/>
+      <c r="CH49" s="221"/>
+      <c r="CI49" s="220"/>
       <c r="CJ49" s="1"/>
       <c r="CK49" s="1"/>
       <c r="CL49" s="46"/>
     </row>
     <row r="50" spans="36:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ50" s="224" t="s">
+      <c r="AJ50" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="AK50" s="225"/>
+      <c r="AK50" s="227"/>
       <c r="AL50" s="189" t="s">
         <v>179</v>
       </c>
@@ -11833,19 +11856,19 @@
       <c r="AN50" s="25"/>
       <c r="AO50" s="119"/>
       <c r="AP50" s="119"/>
-      <c r="AQ50" s="257"/>
+      <c r="AQ50" s="261"/>
       <c r="AS50" s="192"/>
       <c r="AT50" s="2"/>
-      <c r="AU50" s="219"/>
-      <c r="AV50" s="218"/>
+      <c r="AU50" s="221"/>
+      <c r="AV50" s="220"/>
       <c r="AW50" s="1"/>
       <c r="AX50" s="1"/>
       <c r="AY50" s="24"/>
       <c r="AZ50" s="49"/>
-      <c r="BD50" s="224" t="s">
+      <c r="BD50" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="BE50" s="225"/>
+      <c r="BE50" s="227"/>
       <c r="BF50" s="189"/>
       <c r="BG50" s="9">
         <f>SUM(BD40:BF48)</f>
@@ -11854,18 +11877,18 @@
       <c r="BH50" s="25"/>
       <c r="BI50" s="119"/>
       <c r="BJ50" s="119"/>
-      <c r="BK50" s="257"/>
+      <c r="BK50" s="261"/>
       <c r="BM50" s="192"/>
       <c r="BN50" s="2"/>
-      <c r="BO50" s="219"/>
-      <c r="BP50" s="218"/>
+      <c r="BO50" s="221"/>
+      <c r="BP50" s="220"/>
       <c r="BQ50" s="1"/>
       <c r="BR50" s="1"/>
       <c r="BS50" s="46"/>
-      <c r="BW50" s="224" t="s">
+      <c r="BW50" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="BX50" s="225"/>
+      <c r="BX50" s="227"/>
       <c r="BY50" s="189"/>
       <c r="BZ50" s="9">
         <f>SUM(BW40:BY48)</f>
@@ -11874,88 +11897,90 @@
       <c r="CA50" s="25"/>
       <c r="CB50" s="119"/>
       <c r="CC50" s="119"/>
-      <c r="CD50" s="257"/>
+      <c r="CD50" s="261"/>
       <c r="CF50" s="192"/>
       <c r="CG50" s="2"/>
-      <c r="CH50" s="219"/>
-      <c r="CI50" s="218"/>
+      <c r="CH50" s="221"/>
+      <c r="CI50" s="220"/>
       <c r="CJ50" s="1"/>
       <c r="CK50" s="1"/>
       <c r="CL50" s="46"/>
     </row>
     <row r="51" spans="36:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ51" s="201"/>
+      <c r="AJ51" s="200"/>
       <c r="AK51" s="116"/>
       <c r="AL51" s="116"/>
       <c r="AM51" s="50"/>
       <c r="AN51" s="114"/>
-      <c r="AO51" s="202"/>
-      <c r="AP51" s="203"/>
-      <c r="AQ51" s="258"/>
-      <c r="AR51" s="202"/>
-      <c r="AS51" s="204"/>
+      <c r="AO51" s="201"/>
+      <c r="AP51" s="202"/>
+      <c r="AQ51" s="262"/>
+      <c r="AR51" s="201"/>
+      <c r="AS51" s="203"/>
       <c r="AT51" s="116" t="s">
         <v>160</v>
       </c>
-      <c r="AU51" s="259"/>
-      <c r="AV51" s="260"/>
+      <c r="AU51" s="263"/>
+      <c r="AV51" s="256"/>
       <c r="AW51" s="65"/>
       <c r="AX51" s="65"/>
       <c r="AY51" s="115"/>
       <c r="AZ51" s="51"/>
-      <c r="BD51" s="201"/>
+      <c r="BD51" s="200"/>
       <c r="BE51" s="115"/>
       <c r="BF51" s="116"/>
       <c r="BG51" s="50"/>
       <c r="BH51" s="114"/>
-      <c r="BI51" s="202"/>
-      <c r="BJ51" s="203"/>
-      <c r="BK51" s="258"/>
-      <c r="BL51" s="202"/>
-      <c r="BM51" s="204"/>
+      <c r="BI51" s="201"/>
+      <c r="BJ51" s="202"/>
+      <c r="BK51" s="262"/>
+      <c r="BL51" s="201"/>
+      <c r="BM51" s="203"/>
       <c r="BN51" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="BO51" s="259"/>
-      <c r="BP51" s="260"/>
+      <c r="BO51" s="263"/>
+      <c r="BP51" s="256"/>
       <c r="BQ51" s="65"/>
       <c r="BR51" s="65"/>
       <c r="BS51" s="168"/>
-      <c r="BW51" s="201"/>
+      <c r="BW51" s="200"/>
       <c r="BX51" s="115"/>
       <c r="BY51" s="116"/>
       <c r="BZ51" s="50"/>
       <c r="CA51" s="114"/>
-      <c r="CB51" s="202"/>
-      <c r="CC51" s="203"/>
-      <c r="CD51" s="258"/>
-      <c r="CE51" s="202"/>
-      <c r="CF51" s="204" t="s">
+      <c r="CB51" s="201"/>
+      <c r="CC51" s="202"/>
+      <c r="CD51" s="262"/>
+      <c r="CE51" s="201"/>
+      <c r="CF51" s="203" t="s">
         <v>180</v>
       </c>
       <c r="CG51" s="79"/>
-      <c r="CH51" s="259"/>
-      <c r="CI51" s="260"/>
+      <c r="CH51" s="263"/>
+      <c r="CI51" s="256"/>
       <c r="CJ51" s="65"/>
       <c r="CK51" s="65"/>
       <c r="CL51" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="CI49:CI51"/>
-    <mergeCell ref="BW50:BX50"/>
-    <mergeCell ref="BW38:BY38"/>
-    <mergeCell ref="BW44:BW45"/>
-    <mergeCell ref="CB44:CB45"/>
-    <mergeCell ref="CD49:CD51"/>
-    <mergeCell ref="CH49:CH51"/>
-    <mergeCell ref="BP49:BP51"/>
-    <mergeCell ref="BD50:BE50"/>
-    <mergeCell ref="BD38:BF38"/>
-    <mergeCell ref="BD44:BD45"/>
-    <mergeCell ref="BI44:BI45"/>
-    <mergeCell ref="BK49:BK51"/>
-    <mergeCell ref="BO49:BO51"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="AO44:AO45"/>
+    <mergeCell ref="AQ49:AQ51"/>
+    <mergeCell ref="AU49:AU51"/>
+    <mergeCell ref="AV49:AV51"/>
+    <mergeCell ref="AJ50:AK50"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="AJ38:AL38"/>
+    <mergeCell ref="AJ44:AJ45"/>
+    <mergeCell ref="AK44:AK45"/>
     <mergeCell ref="BR24:BS24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
@@ -11971,22 +11996,20 @@
     <mergeCell ref="BM36:BN36"/>
     <mergeCell ref="AG24:AH24"/>
     <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="AQ49:AQ51"/>
-    <mergeCell ref="AU49:AU51"/>
-    <mergeCell ref="AV49:AV51"/>
-    <mergeCell ref="AJ50:AK50"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="AJ38:AL38"/>
-    <mergeCell ref="AJ44:AJ45"/>
-    <mergeCell ref="AK44:AK45"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="AO44:AO45"/>
+    <mergeCell ref="BP49:BP51"/>
+    <mergeCell ref="BD50:BE50"/>
+    <mergeCell ref="BD38:BF38"/>
+    <mergeCell ref="BD44:BD45"/>
+    <mergeCell ref="BI44:BI45"/>
+    <mergeCell ref="BK49:BK51"/>
+    <mergeCell ref="BO49:BO51"/>
+    <mergeCell ref="CI49:CI51"/>
+    <mergeCell ref="BW50:BX50"/>
+    <mergeCell ref="BW38:BY38"/>
+    <mergeCell ref="BW44:BW45"/>
+    <mergeCell ref="CB44:CB45"/>
+    <mergeCell ref="CD49:CD51"/>
+    <mergeCell ref="CH49:CH51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Usage_S_1.0.6.xlsx
+++ b/Usage_S_1.0.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E03059-FC6C-4F1D-BCD9-9EE34ABCE347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BF9833-A847-459F-8204-2BC205690EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="201">
   <si>
     <t>UnSettled</t>
   </si>
@@ -605,21 +605,12 @@
     <t>SS MgX</t>
   </si>
   <si>
-    <t>X-WL F IS-(2) - X</t>
-  </si>
-  <si>
-    <t>ErrorFix</t>
-  </si>
-  <si>
     <t>Bucket</t>
   </si>
   <si>
     <t>X-Professional - (1) -X</t>
   </si>
   <si>
-    <t>JDS</t>
-  </si>
-  <si>
     <t>Rw- Ujjain</t>
   </si>
   <si>
@@ -629,13 +620,25 @@
     <t>Rw - Katra</t>
   </si>
   <si>
-    <t>Rw - JoshiMath</t>
-  </si>
-  <si>
     <t>Rw - Railway</t>
   </si>
   <si>
     <t>UmbrellaW</t>
+  </si>
+  <si>
+    <t>Rw - Ganjam</t>
+  </si>
+  <si>
+    <t>Rw - Jatani</t>
+  </si>
+  <si>
+    <t>X-WL F IS  - X</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>Rw - Pune</t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2000,36 +2003,65 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2057,11 +2089,53 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2072,15 +2146,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2093,52 +2158,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2152,26 +2178,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2458,10 +2476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2469,15 +2487,15 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="3.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" style="117" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="192" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="117" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="117" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -2498,15 +2516,15 @@
       <c r="B2" s="34">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="224">
+      <c r="C2" s="237">
         <f>B3+B4</f>
         <v>0</v>
       </c>
-      <c r="E2" s="228" t="s">
+      <c r="E2" s="241" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="229"/>
-      <c r="G2" s="230"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="243"/>
       <c r="H2" s="26" t="s">
         <v>43</v>
       </c>
@@ -2516,13 +2534,13 @@
       <c r="J2" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="270" t="s">
-        <v>199</v>
-      </c>
-      <c r="L2" s="37" t="s">
+      <c r="K2" s="214" t="s">
+        <v>195</v>
+      </c>
+      <c r="L2" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="83" t="s">
         <v>40</v>
       </c>
       <c r="N2" s="9" t="s">
@@ -2555,50 +2573,50 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="222" t="s">
+      <c r="A3" s="235" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
       </c>
-      <c r="C3" s="225"/>
+      <c r="C3" s="238"/>
       <c r="D3" s="162" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="223"/>
+      <c r="A4" s="236"/>
       <c r="B4" s="34">
         <v>0</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="213">
+      <c r="E4" s="140">
         <v>10</v>
       </c>
-      <c r="F4" s="205"/>
+      <c r="F4" s="205">
+        <v>10</v>
+      </c>
       <c r="G4" s="164"/>
       <c r="H4" s="9" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="I4" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="218" t="s">
+      <c r="J4" s="213" t="s">
         <v>187</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="194" t="s">
         <v>185</v>
       </c>
-      <c r="L4" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="M4" s="170" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="224" t="s">
         <v>156</v>
       </c>
       <c r="N4" s="143" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O4" s="176" t="s">
         <v>156</v>
@@ -2617,10 +2635,11 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="279"/>
       <c r="D5" s="156">
         <v>-2</v>
       </c>
-      <c r="E5" s="204">
+      <c r="E5" s="217">
         <v>20</v>
       </c>
       <c r="F5" s="206"/>
@@ -2631,22 +2650,22 @@
       <c r="I5" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="218" t="s">
+      <c r="J5" s="213" t="s">
         <v>165</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="194" t="s">
         <v>185</v>
       </c>
-      <c r="L5" s="267" t="s">
+      <c r="L5" s="167" t="s">
         <v>142</v>
       </c>
-      <c r="M5" s="170" t="s">
+      <c r="M5" s="224" t="s">
         <v>85</v>
       </c>
       <c r="N5" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="O5" s="215" t="s">
+      <c r="O5" s="212" t="s">
         <v>137</v>
       </c>
       <c r="P5" s="197" t="s">
@@ -2664,29 +2683,31 @@
     </row>
     <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>1380</v>
+        <v>1575</v>
       </c>
       <c r="C6">
-        <v>600</v>
-      </c>
-      <c r="E6" s="166"/>
-      <c r="F6" s="207"/>
+        <v>425</v>
+      </c>
+      <c r="E6" s="218"/>
+      <c r="F6" s="207">
+        <v>30</v>
+      </c>
       <c r="G6" s="127"/>
-      <c r="H6" s="28" t="s">
-        <v>102</v>
+      <c r="H6" s="9" t="s">
+        <v>1</v>
       </c>
       <c r="I6" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="218" t="s">
+      <c r="J6" s="213" t="s">
         <v>165</v>
       </c>
-      <c r="K6" s="170"/>
-      <c r="L6" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="M6" s="37" t="s">
-        <v>94</v>
+      <c r="K6" s="194"/>
+      <c r="L6" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="M6" s="83" t="s">
+        <v>22</v>
       </c>
       <c r="N6" s="143" t="s">
         <v>120</v>
@@ -2714,8 +2735,10 @@
       <c r="B7" s="29">
         <v>0</v>
       </c>
-      <c r="E7" s="177"/>
-      <c r="F7" s="207"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="207">
+        <v>20</v>
+      </c>
       <c r="G7" s="127"/>
       <c r="H7" s="9" t="s">
         <v>188</v>
@@ -2726,18 +2749,20 @@
       <c r="J7" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="216" t="s">
-        <v>152</v>
-      </c>
-      <c r="M7" s="215" t="s">
-        <v>177</v>
+      <c r="K7" s="194" t="s">
+        <v>185</v>
+      </c>
+      <c r="L7" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="M7" s="83" t="s">
+        <v>94</v>
       </c>
       <c r="N7" s="143" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O7" s="37" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="P7" s="37" t="s">
         <v>95</v>
@@ -2756,8 +2781,10 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="212"/>
-      <c r="F8" s="208"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="208">
+        <v>50</v>
+      </c>
       <c r="G8" s="190"/>
       <c r="H8" s="9" t="s">
         <v>72</v>
@@ -2765,22 +2792,22 @@
       <c r="I8" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="83"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37" t="s">
+      <c r="J8" s="213"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="M8" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="M8" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="N8" s="143" t="s">
-        <v>197</v>
+      <c r="N8" s="187" t="s">
+        <v>196</v>
       </c>
       <c r="O8" s="37" t="s">
         <v>96</v>
       </c>
       <c r="P8" s="188" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="Q8" s="154">
         <v>0.54999999999999993</v>
@@ -2798,9 +2825,9 @@
       </c>
       <c r="B9" s="8">
         <f>7000+B6-C2</f>
-        <v>8380</v>
-      </c>
-      <c r="E9" s="214">
+        <v>8575</v>
+      </c>
+      <c r="E9" s="163">
         <v>14</v>
       </c>
       <c r="F9" s="165"/>
@@ -2811,23 +2838,23 @@
       <c r="I9" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="218" t="s">
+      <c r="J9" s="213" t="s">
         <v>165</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="194" t="s">
         <v>185</v>
       </c>
-      <c r="L9" s="219" t="s">
+      <c r="L9" s="223" t="s">
         <v>163</v>
       </c>
-      <c r="M9" s="176" t="s">
+      <c r="M9" s="224" t="s">
         <v>170</v>
       </c>
       <c r="N9" s="143" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O9" s="37" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="P9" s="37" t="s">
         <v>30</v>
@@ -2843,29 +2870,27 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="210"/>
+      <c r="E10" s="220"/>
       <c r="F10" s="165"/>
       <c r="G10" s="177"/>
       <c r="H10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="I10" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="218"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="M10" s="33" t="s">
-        <v>123</v>
+      <c r="I10" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="213"/>
+      <c r="K10" s="169"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83" t="s">
+        <v>94</v>
       </c>
       <c r="N10" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="O10" s="37"/>
+      <c r="O10" s="222"/>
       <c r="P10" s="37" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="154">
         <v>0.6875</v>
@@ -2883,30 +2908,30 @@
       </c>
       <c r="B11" s="8">
         <f>B9-B13</f>
-        <v>-20</v>
-      </c>
-      <c r="E11" s="210">
+        <v>0</v>
+      </c>
+      <c r="E11" s="221">
         <v>5</v>
       </c>
       <c r="F11" s="209"/>
       <c r="G11" s="184"/>
-      <c r="H11" s="41" t="s">
-        <v>128</v>
+      <c r="H11" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="I11" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="218" t="s">
+      <c r="J11" s="213" t="s">
         <v>116</v>
       </c>
-      <c r="K11" s="217" t="s">
-        <v>189</v>
-      </c>
-      <c r="L11" s="268" t="s">
-        <v>176</v>
-      </c>
-      <c r="M11" s="176" t="s">
-        <v>62</v>
+      <c r="K11" s="215" t="s">
+        <v>198</v>
+      </c>
+      <c r="L11" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" s="83" t="s">
+        <v>152</v>
       </c>
       <c r="N11" s="186" t="s">
         <v>110</v>
@@ -2931,30 +2956,32 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="177"/>
-      <c r="F12" s="205"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="205">
+        <v>55</v>
+      </c>
       <c r="G12" s="164"/>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="213"/>
+      <c r="K12" s="194" t="s">
         <v>190</v>
       </c>
-      <c r="I12" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="218" t="s">
-        <v>172</v>
-      </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="231" t="s">
-        <v>137</v>
-      </c>
-      <c r="M12" s="216" t="s">
-        <v>143</v>
-      </c>
-      <c r="N12" s="187" t="s">
-        <v>182</v>
+      <c r="L12" s="224" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" s="225" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" s="143" t="s">
+        <v>197</v>
       </c>
       <c r="O12" s="37" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="P12" s="188" t="s">
         <v>181</v>
@@ -2976,42 +3003,44 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>8400</v>
-      </c>
-      <c r="E13" s="15">
+        <v>8575</v>
+      </c>
+      <c r="E13" s="36">
         <v>1</v>
       </c>
-      <c r="F13" s="34"/>
+      <c r="F13" s="205"/>
       <c r="G13" s="74"/>
       <c r="H13" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I13" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="218" t="s">
+      <c r="J13" s="230" t="s">
         <v>186</v>
       </c>
-      <c r="K13" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="L13" s="232"/>
-      <c r="M13" s="176" t="s">
+      <c r="K13" s="195" t="s">
+        <v>190</v>
+      </c>
+      <c r="L13" s="183" t="s">
+        <v>155</v>
+      </c>
+      <c r="M13" s="183" t="s">
         <v>85</v>
       </c>
-      <c r="N13" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="O13" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="P13" s="188" t="s">
-        <v>65</v>
+      <c r="N13" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="O13" s="160" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="231" t="s">
+        <v>90</v>
       </c>
       <c r="Q13" s="154">
         <v>0.6875</v>
       </c>
-      <c r="R13" s="220"/>
+      <c r="R13" s="234"/>
       <c r="S13" s="154">
         <v>0.84375</v>
       </c>
@@ -3022,21 +3051,32 @@
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
-      <c r="E14" s="226" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="227"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="9">
-        <f>SUM(E4:G13)</f>
-        <v>50</v>
-      </c>
-      <c r="J14" s="119"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14"/>
+      <c r="E14" s="205"/>
+      <c r="F14" s="205">
+        <v>10</v>
+      </c>
+      <c r="G14" s="74"/>
+      <c r="H14" s="229" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="213"/>
+      <c r="K14" s="194"/>
+      <c r="L14" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" s="224"/>
+      <c r="N14" s="143" t="s">
+        <v>200</v>
+      </c>
+      <c r="O14" s="176"/>
+      <c r="P14" s="37" t="s">
+        <v>29</v>
+      </c>
       <c r="Q14"/>
-      <c r="R14" s="220"/>
+      <c r="R14" s="234"/>
     </row>
     <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -3047,38 +3087,44 @@
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="20"/>
+      <c r="E15" s="239" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="240"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="9">
+        <f>SUM(E4:G13)</f>
+        <v>215</v>
+      </c>
       <c r="J15" s="119"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="269"/>
-      <c r="M15"/>
-      <c r="N15" s="119"/>
+      <c r="K15" s="216"/>
+      <c r="L15" s="119"/>
       <c r="Q15"/>
-      <c r="R15" s="220"/>
+      <c r="R15" s="234"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
-      <c r="E16" s="20"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="20"/>
+      <c r="I16" s="226"/>
       <c r="J16" s="119"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
+      <c r="K16" s="216"/>
+      <c r="L16" s="119"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
-      <c r="E17" s="20"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="20"/>
+      <c r="I17" s="227"/>
       <c r="J17" s="119"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="Q17" s="221"/>
-      <c r="R17" s="220"/>
+      <c r="K17" s="216"/>
+      <c r="L17" s="119"/>
+      <c r="Q17" s="233"/>
+      <c r="R17" s="234"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -3089,30 +3135,34 @@
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
-      <c r="E18" s="20"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="20"/>
+      <c r="I18" s="227"/>
       <c r="J18" s="119"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="220"/>
-      <c r="Q18" s="221"/>
-      <c r="R18" s="220"/>
+      <c r="K18" s="216"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="232"/>
+      <c r="Q18" s="233"/>
+      <c r="R18" s="234"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M19" s="220"/>
+      <c r="I19" s="227"/>
+      <c r="M19" s="232"/>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="228"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="Q17:Q18"/>
     <mergeCell ref="R17:R18"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="R13:R15"/>
-    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="L12:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3120,10 +3170,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3147,18 +3197,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="233" t="s">
+      <c r="E1" s="260" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="234"/>
+      <c r="F1" s="261"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="233" t="s">
+      <c r="H1" s="260" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="235"/>
-      <c r="J1" s="234"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="261"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -3176,7 +3226,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="236">
+      <c r="B2" s="247">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -3203,26 +3253,26 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="239">
+      <c r="K2" s="263">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="241">
+      <c r="L2" s="265">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="245">
+      <c r="M2" s="250">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
-        <f>SUM(E2:J48)</f>
-        <v>8360</v>
+        <f>SUM(E2:J49)</f>
+        <v>8535</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="237"/>
+      <c r="B3" s="249"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -3237,13 +3287,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="240"/>
-      <c r="L3" s="242"/>
-      <c r="M3" s="246"/>
+      <c r="K3" s="264"/>
+      <c r="L3" s="266"/>
+      <c r="M3" s="251"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="238"/>
+      <c r="B4" s="248"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -3258,9 +3308,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="240"/>
-      <c r="L4" s="242"/>
-      <c r="M4" s="246"/>
+      <c r="K4" s="264"/>
+      <c r="L4" s="266"/>
+      <c r="M4" s="251"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -3342,7 +3392,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="247">
+      <c r="B7" s="252">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -3359,22 +3409,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="249">
+      <c r="K7" s="254">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="251">
+      <c r="L7" s="256">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="253">
+      <c r="M7" s="258">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="248"/>
+      <c r="B8" s="253"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -3395,9 +3445,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="250"/>
-      <c r="L8" s="252"/>
-      <c r="M8" s="254"/>
+      <c r="K8" s="255"/>
+      <c r="L8" s="257"/>
+      <c r="M8" s="259"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3477,7 +3527,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="247">
+      <c r="B11" s="252">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3504,7 +3554,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="248"/>
+      <c r="B12" s="253"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3561,7 +3611,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="247">
+      <c r="B14" s="252">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3584,7 +3634,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="248"/>
+      <c r="B15" s="253"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3608,7 +3658,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="236">
+      <c r="B16" s="247">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3639,7 +3689,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="237"/>
+      <c r="B17" s="249"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3657,7 +3707,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="236">
+      <c r="B18" s="247">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3686,7 +3736,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="238"/>
+      <c r="B19" s="248"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3746,7 +3796,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="243">
+      <c r="B21" s="245">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3774,7 +3824,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="244"/>
+      <c r="B22" s="246"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3826,7 +3876,7 @@
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="224">
+      <c r="B24" s="237">
         <v>16</v>
       </c>
       <c r="C24" s="141"/>
@@ -3855,7 +3905,7 @@
       <c r="A25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="225"/>
+      <c r="B25" s="238"/>
       <c r="C25" s="142"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -3883,7 +3933,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="224">
+      <c r="B26" s="237">
         <v>17</v>
       </c>
       <c r="C26" s="161"/>
@@ -3914,7 +3964,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="255"/>
+      <c r="B27" s="244"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3945,7 +3995,7 @@
       <c r="A28" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="224">
+      <c r="B28" s="237">
         <v>18</v>
       </c>
       <c r="C28" s="141"/>
@@ -3967,7 +4017,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="225"/>
+      <c r="B29" s="238"/>
       <c r="C29" s="142"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3993,7 +4043,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="224">
+      <c r="B30" s="237">
         <v>19</v>
       </c>
       <c r="C30" s="142"/>
@@ -4016,7 +4066,7 @@
       <c r="A31" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="225"/>
+      <c r="B31" s="238"/>
       <c r="C31" s="142"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -4043,7 +4093,7 @@
       <c r="A32" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="224">
+      <c r="B32" s="237">
         <v>20</v>
       </c>
       <c r="C32" s="142"/>
@@ -4065,7 +4115,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="225"/>
+      <c r="B33" s="238"/>
       <c r="C33" s="142"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -4118,7 +4168,7 @@
       <c r="M34" s="82"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="224">
+      <c r="B35" s="237">
         <v>22</v>
       </c>
       <c r="C35" s="96"/>
@@ -4145,7 +4195,7 @@
       <c r="A36" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="225"/>
+      <c r="B36" s="238"/>
       <c r="C36" s="142"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -4167,7 +4217,7 @@
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="224">
+      <c r="B37" s="237">
         <v>23</v>
       </c>
       <c r="C37" s="142"/>
@@ -4200,7 +4250,7 @@
       <c r="A38" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="225"/>
+      <c r="B38" s="238"/>
       <c r="C38" s="96"/>
       <c r="D38" s="82"/>
       <c r="E38" s="82"/>
@@ -4218,7 +4268,7 @@
       <c r="M38" s="82"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="224">
+      <c r="B39" s="237">
         <v>24</v>
       </c>
       <c r="C39" s="142"/>
@@ -4245,7 +4295,7 @@
       <c r="A40" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="255"/>
+      <c r="B40" s="244"/>
       <c r="C40" s="96"/>
       <c r="D40" s="82">
         <v>210</v>
@@ -4273,7 +4323,7 @@
       <c r="M40" s="82"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="224">
+      <c r="B41" s="237">
         <v>25</v>
       </c>
       <c r="C41" s="142"/>
@@ -4300,7 +4350,7 @@
       <c r="A42" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="255"/>
+      <c r="B42" s="244"/>
       <c r="C42" s="142"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -4318,7 +4368,7 @@
       <c r="M42" s="18"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="225"/>
+      <c r="B43" s="238"/>
       <c r="C43" s="142"/>
       <c r="D43" s="18">
         <v>190</v>
@@ -4347,7 +4397,7 @@
       <c r="A44" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="224">
+      <c r="B44" s="237">
         <v>26</v>
       </c>
       <c r="C44" s="142"/>
@@ -4373,7 +4423,7 @@
       <c r="M44" s="18"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="225"/>
+      <c r="B45" s="238"/>
       <c r="C45" s="142"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
@@ -4398,7 +4448,7 @@
       <c r="A46" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="224">
+      <c r="B46" s="237">
         <v>27</v>
       </c>
       <c r="C46" s="142"/>
@@ -4420,7 +4470,7 @@
       <c r="M46" s="18"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="255"/>
+      <c r="B47" s="244"/>
       <c r="C47" s="211"/>
       <c r="D47" s="132"/>
       <c r="E47" s="132"/>
@@ -4441,7 +4491,7 @@
       <c r="A48" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="34">
+      <c r="B48" s="237">
         <v>28</v>
       </c>
       <c r="C48" s="142"/>
@@ -4460,18 +4510,40 @@
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
     </row>
+    <row r="49" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="238"/>
+      <c r="C49" s="142"/>
+      <c r="D49" s="18">
+        <v>175</v>
+      </c>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18">
+        <v>50</v>
+      </c>
+      <c r="G49" s="18">
+        <v>55</v>
+      </c>
+      <c r="H49" s="18">
+        <v>30</v>
+      </c>
+      <c r="I49" s="278">
+        <v>20</v>
+      </c>
+      <c r="J49" s="278">
+        <v>20</v>
+      </c>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
+  <mergeCells count="27">
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
@@ -4483,11 +4555,16 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7694,10 +7771,10 @@
       <c r="CG23" s="49"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="226" t="s">
+      <c r="AG24" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="227"/>
+      <c r="AH24" s="240"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -7717,10 +7794,10 @@
       <c r="AV24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="226" t="s">
+      <c r="AZ24" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="227"/>
+      <c r="BA24" s="240"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -7740,10 +7817,10 @@
       <c r="BO24" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="226" t="s">
+      <c r="BR24" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="227"/>
+      <c r="BS24" s="240"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>
@@ -7766,10 +7843,10 @@
     </row>
     <row r="25" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="228" t="s">
+      <c r="B26" s="241" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="230"/>
+      <c r="C26" s="243"/>
       <c r="D26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7806,10 +7883,10 @@
       <c r="O26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="R26" s="228" t="s">
+      <c r="R26" s="241" t="s">
         <v>145</v>
       </c>
-      <c r="S26" s="230"/>
+      <c r="S26" s="243"/>
       <c r="T26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7846,10 +7923,10 @@
       <c r="AE26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AG26" s="228" t="s">
+      <c r="AG26" s="241" t="s">
         <v>145</v>
       </c>
-      <c r="AH26" s="230"/>
+      <c r="AH26" s="243"/>
       <c r="AI26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7886,10 +7963,10 @@
       <c r="AT26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AW26" s="228" t="s">
+      <c r="AW26" s="241" t="s">
         <v>145</v>
       </c>
-      <c r="AX26" s="230"/>
+      <c r="AX26" s="243"/>
       <c r="AY26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7926,10 +8003,10 @@
       <c r="BJ26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="BM26" s="228" t="s">
+      <c r="BM26" s="241" t="s">
         <v>145</v>
       </c>
-      <c r="BN26" s="230"/>
+      <c r="BN26" s="243"/>
       <c r="BO26" s="26" t="s">
         <v>43</v>
       </c>
@@ -8923,7 +9000,7 @@
       <c r="AW32" s="163">
         <v>25</v>
       </c>
-      <c r="AX32" s="264">
+      <c r="AX32" s="267">
         <v>70</v>
       </c>
       <c r="AY32" s="9" t="s">
@@ -8961,7 +9038,7 @@
       <c r="BM32" s="163">
         <v>50</v>
       </c>
-      <c r="BN32" s="264">
+      <c r="BN32" s="267">
         <v>20</v>
       </c>
       <c r="BO32" s="9" t="s">
@@ -9110,7 +9187,7 @@
         <v>148</v>
       </c>
       <c r="AW33" s="163"/>
-      <c r="AX33" s="265"/>
+      <c r="AX33" s="268"/>
       <c r="AY33" s="9" t="s">
         <v>71</v>
       </c>
@@ -9146,7 +9223,7 @@
       <c r="BM33" s="140">
         <v>10</v>
       </c>
-      <c r="BN33" s="265"/>
+      <c r="BN33" s="268"/>
       <c r="BO33" s="9" t="s">
         <v>71</v>
       </c>
@@ -9297,7 +9374,7 @@
         <v>148</v>
       </c>
       <c r="AW34" s="140"/>
-      <c r="AX34" s="266"/>
+      <c r="AX34" s="269"/>
       <c r="AY34" s="9" t="s">
         <v>81</v>
       </c>
@@ -9335,7 +9412,7 @@
       <c r="BM34" s="165">
         <v>70</v>
       </c>
-      <c r="BN34" s="266"/>
+      <c r="BN34" s="269"/>
       <c r="BO34" s="9" t="s">
         <v>81</v>
       </c>
@@ -9566,10 +9643,10 @@
       </c>
     </row>
     <row r="36" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="226" t="s">
+      <c r="B36" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="227"/>
+      <c r="C36" s="240"/>
       <c r="D36" s="9">
         <f>SUM(B28:C35)</f>
         <v>512</v>
@@ -9587,10 +9664,10 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
       <c r="O36" s="102"/>
-      <c r="R36" s="226" t="s">
+      <c r="R36" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="S36" s="227"/>
+      <c r="S36" s="240"/>
       <c r="T36" s="9">
         <f>SUM(R28:S35)</f>
         <v>182</v>
@@ -9608,10 +9685,10 @@
       <c r="AC36" s="65"/>
       <c r="AD36" s="65"/>
       <c r="AE36" s="102"/>
-      <c r="AG36" s="226" t="s">
+      <c r="AG36" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="AH36" s="227"/>
+      <c r="AH36" s="240"/>
       <c r="AI36" s="9">
         <f>SUM(AG28:AH35)</f>
         <v>360</v>
@@ -9629,10 +9706,10 @@
       <c r="AR36" s="65"/>
       <c r="AS36" s="65"/>
       <c r="AT36" s="102"/>
-      <c r="AW36" s="226" t="s">
+      <c r="AW36" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="AX36" s="227"/>
+      <c r="AX36" s="240"/>
       <c r="AY36" s="9">
         <f>SUM(AW28:AX35)</f>
         <v>200</v>
@@ -9650,10 +9727,10 @@
       <c r="BH36" s="65"/>
       <c r="BI36" s="65"/>
       <c r="BJ36" s="102"/>
-      <c r="BM36" s="226" t="s">
+      <c r="BM36" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="BN36" s="227"/>
+      <c r="BN36" s="240"/>
       <c r="BO36" s="9">
         <f>SUM(BM28:BN35)</f>
         <v>260</v>
@@ -9673,10 +9750,10 @@
     </row>
     <row r="37" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="228" t="s">
+      <c r="B38" s="241" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="230"/>
+      <c r="C38" s="243"/>
       <c r="D38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9716,10 +9793,10 @@
       <c r="P38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="S38" s="228" t="s">
+      <c r="S38" s="241" t="s">
         <v>145</v>
       </c>
-      <c r="T38" s="230"/>
+      <c r="T38" s="243"/>
       <c r="U38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9759,11 +9836,11 @@
       <c r="AG38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="AJ38" s="228" t="s">
+      <c r="AJ38" s="241" t="s">
         <v>145</v>
       </c>
-      <c r="AK38" s="229"/>
-      <c r="AL38" s="230"/>
+      <c r="AK38" s="242"/>
+      <c r="AL38" s="243"/>
       <c r="AM38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9808,11 +9885,11 @@
         <f ca="1">TODAY()</f>
         <v>45288</v>
       </c>
-      <c r="BD38" s="228" t="s">
+      <c r="BD38" s="241" t="s">
         <v>145</v>
       </c>
-      <c r="BE38" s="229"/>
-      <c r="BF38" s="230"/>
+      <c r="BE38" s="242"/>
+      <c r="BF38" s="243"/>
       <c r="BG38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9852,11 +9929,11 @@
       <c r="BS38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="BW38" s="228" t="s">
+      <c r="BW38" s="241" t="s">
         <v>145</v>
       </c>
-      <c r="BX38" s="229"/>
-      <c r="BY38" s="230"/>
+      <c r="BX38" s="242"/>
+      <c r="BY38" s="243"/>
       <c r="BZ38" s="26" t="s">
         <v>43</v>
       </c>
@@ -10808,7 +10885,7 @@
     </row>
     <row r="44" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="163"/>
-      <c r="C44" s="264">
+      <c r="C44" s="267">
         <v>55</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -10846,10 +10923,10 @@
       <c r="P44" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S44" s="257">
+      <c r="S44" s="276">
         <v>25</v>
       </c>
-      <c r="T44" s="264">
+      <c r="T44" s="267">
         <v>55</v>
       </c>
       <c r="U44" s="9" t="s">
@@ -10858,7 +10935,7 @@
       <c r="V44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="W44" s="259" t="s">
+      <c r="W44" s="270" t="s">
         <v>105</v>
       </c>
       <c r="X44" s="83" t="s">
@@ -10887,10 +10964,10 @@
       <c r="AG44" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="AJ44" s="257">
+      <c r="AJ44" s="276">
         <v>50</v>
       </c>
-      <c r="AK44" s="264">
+      <c r="AK44" s="267">
         <v>10</v>
       </c>
       <c r="AL44" s="190"/>
@@ -10900,7 +10977,7 @@
       <c r="AN44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="AO44" s="259" t="s">
+      <c r="AO44" s="270" t="s">
         <v>105</v>
       </c>
       <c r="AP44" s="83" t="s">
@@ -10930,7 +11007,7 @@
         <v>168</v>
       </c>
       <c r="AZ44" s="49"/>
-      <c r="BD44" s="257">
+      <c r="BD44" s="276">
         <v>50</v>
       </c>
       <c r="BE44" s="208"/>
@@ -10941,7 +11018,7 @@
       <c r="BH44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="BI44" s="259" t="s">
+      <c r="BI44" s="270" t="s">
         <v>105</v>
       </c>
       <c r="BJ44" s="83" t="s">
@@ -10970,7 +11047,7 @@
       <c r="BS44" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="BW44" s="257">
+      <c r="BW44" s="276">
         <v>25</v>
       </c>
       <c r="BX44" s="208"/>
@@ -10981,7 +11058,7 @@
       <c r="CA44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="CB44" s="259" t="s">
+      <c r="CB44" s="270" t="s">
         <v>105</v>
       </c>
       <c r="CC44" s="83" t="s">
@@ -11013,7 +11090,7 @@
     </row>
     <row r="45" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="140"/>
-      <c r="C45" s="265"/>
+      <c r="C45" s="268"/>
       <c r="D45" s="9" t="s">
         <v>71</v>
       </c>
@@ -11047,15 +11124,15 @@
       <c r="P45" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S45" s="258"/>
-      <c r="T45" s="266"/>
+      <c r="S45" s="277"/>
+      <c r="T45" s="269"/>
       <c r="U45" s="9" t="s">
         <v>71</v>
       </c>
       <c r="V45" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="W45" s="260"/>
+      <c r="W45" s="271"/>
       <c r="X45" s="182" t="s">
         <v>163</v>
       </c>
@@ -11082,8 +11159,8 @@
       <c r="AG45" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="AJ45" s="258"/>
-      <c r="AK45" s="266"/>
+      <c r="AJ45" s="277"/>
+      <c r="AK45" s="269"/>
       <c r="AL45" s="191"/>
       <c r="AM45" s="9" t="s">
         <v>71</v>
@@ -11091,7 +11168,7 @@
       <c r="AN45" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="AO45" s="260"/>
+      <c r="AO45" s="271"/>
       <c r="AP45" s="182" t="s">
         <v>163</v>
       </c>
@@ -11119,7 +11196,7 @@
         <v>168</v>
       </c>
       <c r="AZ45" s="49"/>
-      <c r="BD45" s="258"/>
+      <c r="BD45" s="277"/>
       <c r="BE45" s="165">
         <v>20</v>
       </c>
@@ -11130,7 +11207,7 @@
       <c r="BH45" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="BI45" s="260"/>
+      <c r="BI45" s="271"/>
       <c r="BJ45" s="182" t="s">
         <v>163</v>
       </c>
@@ -11157,7 +11234,7 @@
       <c r="BS45" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="BW45" s="258"/>
+      <c r="BW45" s="277"/>
       <c r="BX45" s="165"/>
       <c r="BY45" s="191"/>
       <c r="BZ45" s="9" t="s">
@@ -11166,7 +11243,7 @@
       <c r="CA45" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="CB45" s="260"/>
+      <c r="CB45" s="271"/>
       <c r="CC45" s="182" t="s">
         <v>163</v>
       </c>
@@ -11196,7 +11273,7 @@
     </row>
     <row r="46" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="165"/>
-      <c r="C46" s="266"/>
+      <c r="C46" s="269"/>
       <c r="D46" s="9" t="s">
         <v>81</v>
       </c>
@@ -11623,10 +11700,10 @@
       </c>
     </row>
     <row r="48" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="226" t="s">
+      <c r="B48" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="227"/>
+      <c r="C48" s="240"/>
       <c r="D48" s="9">
         <f>SUM(B40:C47)</f>
         <v>200</v>
@@ -11645,10 +11722,10 @@
       <c r="N48" s="65"/>
       <c r="O48" s="65"/>
       <c r="P48" s="168"/>
-      <c r="S48" s="226" t="s">
+      <c r="S48" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="227"/>
+      <c r="T48" s="240"/>
       <c r="U48" s="9">
         <f>SUM(S40:T47)</f>
         <v>296</v>
@@ -11801,11 +11878,11 @@
       <c r="AN49" s="25"/>
       <c r="AO49" s="119"/>
       <c r="AP49" s="119"/>
-      <c r="AQ49" s="261"/>
+      <c r="AQ49" s="272"/>
       <c r="AS49" s="192"/>
       <c r="AT49" s="2"/>
-      <c r="AU49" s="221"/>
-      <c r="AV49" s="220"/>
+      <c r="AU49" s="233"/>
+      <c r="AV49" s="234"/>
       <c r="AW49" s="1"/>
       <c r="AX49" s="1"/>
       <c r="AY49" s="24"/>
@@ -11817,11 +11894,11 @@
       <c r="BH49" s="25"/>
       <c r="BI49" s="119"/>
       <c r="BJ49" s="119"/>
-      <c r="BK49" s="261"/>
+      <c r="BK49" s="272"/>
       <c r="BM49" s="192"/>
       <c r="BN49" s="2"/>
-      <c r="BO49" s="221"/>
-      <c r="BP49" s="220"/>
+      <c r="BO49" s="233"/>
+      <c r="BP49" s="234"/>
       <c r="BQ49" s="1"/>
       <c r="BR49" s="1"/>
       <c r="BS49" s="46"/>
@@ -11832,20 +11909,20 @@
       <c r="CA49" s="25"/>
       <c r="CB49" s="119"/>
       <c r="CC49" s="119"/>
-      <c r="CD49" s="261"/>
+      <c r="CD49" s="272"/>
       <c r="CF49" s="192"/>
       <c r="CG49" s="2"/>
-      <c r="CH49" s="221"/>
-      <c r="CI49" s="220"/>
+      <c r="CH49" s="233"/>
+      <c r="CI49" s="234"/>
       <c r="CJ49" s="1"/>
       <c r="CK49" s="1"/>
       <c r="CL49" s="46"/>
     </row>
     <row r="50" spans="36:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ50" s="226" t="s">
+      <c r="AJ50" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="AK50" s="227"/>
+      <c r="AK50" s="240"/>
       <c r="AL50" s="189" t="s">
         <v>179</v>
       </c>
@@ -11856,19 +11933,19 @@
       <c r="AN50" s="25"/>
       <c r="AO50" s="119"/>
       <c r="AP50" s="119"/>
-      <c r="AQ50" s="261"/>
+      <c r="AQ50" s="272"/>
       <c r="AS50" s="192"/>
       <c r="AT50" s="2"/>
-      <c r="AU50" s="221"/>
-      <c r="AV50" s="220"/>
+      <c r="AU50" s="233"/>
+      <c r="AV50" s="234"/>
       <c r="AW50" s="1"/>
       <c r="AX50" s="1"/>
       <c r="AY50" s="24"/>
       <c r="AZ50" s="49"/>
-      <c r="BD50" s="226" t="s">
+      <c r="BD50" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="BE50" s="227"/>
+      <c r="BE50" s="240"/>
       <c r="BF50" s="189"/>
       <c r="BG50" s="9">
         <f>SUM(BD40:BF48)</f>
@@ -11877,18 +11954,18 @@
       <c r="BH50" s="25"/>
       <c r="BI50" s="119"/>
       <c r="BJ50" s="119"/>
-      <c r="BK50" s="261"/>
+      <c r="BK50" s="272"/>
       <c r="BM50" s="192"/>
       <c r="BN50" s="2"/>
-      <c r="BO50" s="221"/>
-      <c r="BP50" s="220"/>
+      <c r="BO50" s="233"/>
+      <c r="BP50" s="234"/>
       <c r="BQ50" s="1"/>
       <c r="BR50" s="1"/>
       <c r="BS50" s="46"/>
-      <c r="BW50" s="226" t="s">
+      <c r="BW50" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="BX50" s="227"/>
+      <c r="BX50" s="240"/>
       <c r="BY50" s="189"/>
       <c r="BZ50" s="9">
         <f>SUM(BW40:BY48)</f>
@@ -11897,11 +11974,11 @@
       <c r="CA50" s="25"/>
       <c r="CB50" s="119"/>
       <c r="CC50" s="119"/>
-      <c r="CD50" s="261"/>
+      <c r="CD50" s="272"/>
       <c r="CF50" s="192"/>
       <c r="CG50" s="2"/>
-      <c r="CH50" s="221"/>
-      <c r="CI50" s="220"/>
+      <c r="CH50" s="233"/>
+      <c r="CI50" s="234"/>
       <c r="CJ50" s="1"/>
       <c r="CK50" s="1"/>
       <c r="CL50" s="46"/>
@@ -11914,14 +11991,14 @@
       <c r="AN51" s="114"/>
       <c r="AO51" s="201"/>
       <c r="AP51" s="202"/>
-      <c r="AQ51" s="262"/>
+      <c r="AQ51" s="273"/>
       <c r="AR51" s="201"/>
       <c r="AS51" s="203"/>
       <c r="AT51" s="116" t="s">
         <v>160</v>
       </c>
-      <c r="AU51" s="263"/>
-      <c r="AV51" s="256"/>
+      <c r="AU51" s="274"/>
+      <c r="AV51" s="275"/>
       <c r="AW51" s="65"/>
       <c r="AX51" s="65"/>
       <c r="AY51" s="115"/>
@@ -11933,14 +12010,14 @@
       <c r="BH51" s="114"/>
       <c r="BI51" s="201"/>
       <c r="BJ51" s="202"/>
-      <c r="BK51" s="262"/>
+      <c r="BK51" s="273"/>
       <c r="BL51" s="201"/>
       <c r="BM51" s="203"/>
       <c r="BN51" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="BO51" s="263"/>
-      <c r="BP51" s="256"/>
+      <c r="BO51" s="274"/>
+      <c r="BP51" s="275"/>
       <c r="BQ51" s="65"/>
       <c r="BR51" s="65"/>
       <c r="BS51" s="168"/>
@@ -11951,36 +12028,34 @@
       <c r="CA51" s="114"/>
       <c r="CB51" s="201"/>
       <c r="CC51" s="202"/>
-      <c r="CD51" s="262"/>
+      <c r="CD51" s="273"/>
       <c r="CE51" s="201"/>
       <c r="CF51" s="203" t="s">
         <v>180</v>
       </c>
       <c r="CG51" s="79"/>
-      <c r="CH51" s="263"/>
-      <c r="CI51" s="256"/>
+      <c r="CH51" s="274"/>
+      <c r="CI51" s="275"/>
       <c r="CJ51" s="65"/>
       <c r="CK51" s="65"/>
       <c r="CL51" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="AO44:AO45"/>
-    <mergeCell ref="AQ49:AQ51"/>
-    <mergeCell ref="AU49:AU51"/>
-    <mergeCell ref="AV49:AV51"/>
-    <mergeCell ref="AJ50:AK50"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="AJ38:AL38"/>
-    <mergeCell ref="AJ44:AJ45"/>
-    <mergeCell ref="AK44:AK45"/>
+    <mergeCell ref="CI49:CI51"/>
+    <mergeCell ref="BW50:BX50"/>
+    <mergeCell ref="BW38:BY38"/>
+    <mergeCell ref="BW44:BW45"/>
+    <mergeCell ref="CB44:CB45"/>
+    <mergeCell ref="CD49:CD51"/>
+    <mergeCell ref="CH49:CH51"/>
+    <mergeCell ref="BP49:BP51"/>
+    <mergeCell ref="BD50:BE50"/>
+    <mergeCell ref="BD38:BF38"/>
+    <mergeCell ref="BD44:BD45"/>
+    <mergeCell ref="BI44:BI45"/>
+    <mergeCell ref="BK49:BK51"/>
+    <mergeCell ref="BO49:BO51"/>
     <mergeCell ref="BR24:BS24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
@@ -11996,20 +12071,22 @@
     <mergeCell ref="BM36:BN36"/>
     <mergeCell ref="AG24:AH24"/>
     <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="BP49:BP51"/>
-    <mergeCell ref="BD50:BE50"/>
-    <mergeCell ref="BD38:BF38"/>
-    <mergeCell ref="BD44:BD45"/>
-    <mergeCell ref="BI44:BI45"/>
-    <mergeCell ref="BK49:BK51"/>
-    <mergeCell ref="BO49:BO51"/>
-    <mergeCell ref="CI49:CI51"/>
-    <mergeCell ref="BW50:BX50"/>
-    <mergeCell ref="BW38:BY38"/>
-    <mergeCell ref="BW44:BW45"/>
-    <mergeCell ref="CB44:CB45"/>
-    <mergeCell ref="CD49:CD51"/>
-    <mergeCell ref="CH49:CH51"/>
+    <mergeCell ref="AQ49:AQ51"/>
+    <mergeCell ref="AU49:AU51"/>
+    <mergeCell ref="AV49:AV51"/>
+    <mergeCell ref="AJ50:AK50"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="AJ38:AL38"/>
+    <mergeCell ref="AJ44:AJ45"/>
+    <mergeCell ref="AK44:AK45"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="AO44:AO45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Usage_S_1.0.6.xlsx
+++ b/Usage_S_1.0.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BF9833-A847-459F-8204-2BC205690EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C58808D-A524-4397-9CCB-0BB0DA422EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="204">
   <si>
     <t>UnSettled</t>
   </si>
@@ -639,6 +639,15 @@
   </si>
   <si>
     <t>Rw - Pune</t>
+  </si>
+  <si>
+    <t>Drinks</t>
+  </si>
+  <si>
+    <t>Rw-Surat</t>
+  </si>
+  <si>
+    <t>Food - BB</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2043,10 +2052,8 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2089,82 +2096,82 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2178,19 +2185,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2478,8 +2501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2516,15 +2539,15 @@
       <c r="B2" s="34">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="237">
+      <c r="C2" s="235">
         <f>B3+B4</f>
         <v>0</v>
       </c>
-      <c r="E2" s="241" t="s">
+      <c r="E2" s="239" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="242"/>
-      <c r="G2" s="243"/>
+      <c r="F2" s="240"/>
+      <c r="G2" s="241"/>
       <c r="H2" s="26" t="s">
         <v>43</v>
       </c>
@@ -2573,19 +2596,19 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="233" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
       </c>
-      <c r="C3" s="238"/>
+      <c r="C3" s="236"/>
       <c r="D3" s="162" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="236"/>
+      <c r="A4" s="234"/>
       <c r="B4" s="34">
         <v>0</v>
       </c>
@@ -2635,7 +2658,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="279"/>
+      <c r="B5" s="1"/>
       <c r="D5" s="156">
         <v>-2</v>
       </c>
@@ -2643,7 +2666,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="206"/>
-      <c r="G5" s="126"/>
+      <c r="G5" s="206"/>
       <c r="H5" s="9" t="s">
         <v>1</v>
       </c>
@@ -2672,7 +2695,7 @@
         <v>86</v>
       </c>
       <c r="Q5" s="154">
-        <v>0.4375</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="S5" s="154">
         <v>0.4375</v>
@@ -2692,9 +2715,11 @@
       <c r="F6" s="207">
         <v>30</v>
       </c>
-      <c r="G6" s="127"/>
+      <c r="G6" s="127">
+        <v>20</v>
+      </c>
       <c r="H6" s="9" t="s">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="I6" s="107" t="s">
         <v>17</v>
@@ -2719,13 +2744,13 @@
         <v>69</v>
       </c>
       <c r="Q6" s="154">
-        <v>0.54999999999999993</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="S6" s="154">
         <v>0.85555555555555562</v>
       </c>
       <c r="U6" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2739,7 +2764,9 @@
       <c r="F7" s="207">
         <v>20</v>
       </c>
-      <c r="G7" s="127"/>
+      <c r="G7" s="127">
+        <v>10</v>
+      </c>
       <c r="H7" s="9" t="s">
         <v>188</v>
       </c>
@@ -2777,7 +2804,7 @@
         <v>0.85555555555555562</v>
       </c>
       <c r="U7" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2816,7 +2843,7 @@
         <v>0.85555555555555562</v>
       </c>
       <c r="U8" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2872,7 +2899,9 @@
     <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="220"/>
       <c r="F10" s="165"/>
-      <c r="G10" s="177"/>
+      <c r="G10" s="177">
+        <v>7</v>
+      </c>
       <c r="H10" s="9" t="s">
         <v>81</v>
       </c>
@@ -2881,7 +2910,9 @@
       </c>
       <c r="J10" s="213"/>
       <c r="K10" s="169"/>
-      <c r="L10" s="83"/>
+      <c r="L10" s="83" t="s">
+        <v>143</v>
+      </c>
       <c r="M10" s="83" t="s">
         <v>94</v>
       </c>
@@ -2893,7 +2924,7 @@
         <v>66</v>
       </c>
       <c r="Q10" s="154">
-        <v>0.6875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="S10" s="154">
         <v>0.84375</v>
@@ -2943,16 +2974,13 @@
         <v>161</v>
       </c>
       <c r="Q11" s="154">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>126</v>
+        <v>0.8125</v>
       </c>
       <c r="S11" s="154">
-        <v>0.84375</v>
+        <v>0.8125</v>
       </c>
       <c r="U11" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2994,7 +3022,7 @@
         <v>0.84375</v>
       </c>
       <c r="U12" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3009,14 +3037,16 @@
         <v>1</v>
       </c>
       <c r="F13" s="205"/>
-      <c r="G13" s="74"/>
+      <c r="G13" s="15">
+        <v>3</v>
+      </c>
       <c r="H13" s="9" t="s">
         <v>189</v>
       </c>
       <c r="I13" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="230" t="s">
+      <c r="J13" s="228" t="s">
         <v>186</v>
       </c>
       <c r="K13" s="195" t="s">
@@ -3034,18 +3064,18 @@
       <c r="O13" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="P13" s="231" t="s">
+      <c r="P13" s="229" t="s">
         <v>90</v>
       </c>
       <c r="Q13" s="154">
         <v>0.6875</v>
       </c>
-      <c r="R13" s="234"/>
+      <c r="R13" s="285"/>
       <c r="S13" s="154">
         <v>0.84375</v>
       </c>
       <c r="U13" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3055,8 +3085,10 @@
       <c r="F14" s="205">
         <v>10</v>
       </c>
-      <c r="G14" s="74"/>
-      <c r="H14" s="229" t="s">
+      <c r="G14" s="184">
+        <v>30</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="107" t="s">
@@ -3075,8 +3107,16 @@
       <c r="P14" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="Q14"/>
-      <c r="R14" s="234"/>
+      <c r="Q14" s="154">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="R14" s="285"/>
+      <c r="S14" s="154">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="U14" s="24" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -3087,28 +3127,51 @@
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
-      <c r="E15" s="239" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="240"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="9">
-        <f>SUM(E4:G13)</f>
-        <v>215</v>
-      </c>
-      <c r="J15" s="119"/>
-      <c r="K15" s="216"/>
-      <c r="L15" s="119"/>
-      <c r="Q15"/>
-      <c r="R15" s="234"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="177">
+        <v>10</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I15" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="277"/>
+      <c r="K15" s="278"/>
+      <c r="L15" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="M15" s="279"/>
+      <c r="N15" s="276" t="s">
+        <v>202</v>
+      </c>
+      <c r="O15" s="74"/>
+      <c r="P15" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="154">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="R15" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="S15" s="154">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="U15" s="24" t="s">
+        <v>184</v>
+      </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="20"/>
-      <c r="I16" s="226"/>
+      <c r="E16" s="282"/>
+      <c r="F16" s="282"/>
+      <c r="G16" s="283"/>
+      <c r="H16" s="284"/>
+      <c r="I16" s="281"/>
       <c r="J16" s="119"/>
       <c r="K16" s="216"/>
       <c r="L16" s="119"/>
@@ -3116,15 +3179,21 @@
     <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="20"/>
-      <c r="I17" s="227"/>
+      <c r="E17" s="237" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="238"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="9">
+        <f>SUM(E4:G15)</f>
+        <v>305</v>
+      </c>
+      <c r="I17" s="26"/>
       <c r="J17" s="119"/>
       <c r="K17" s="216"/>
       <c r="L17" s="119"/>
-      <c r="Q17" s="233"/>
-      <c r="R17" s="234"/>
+      <c r="Q17" s="231"/>
+      <c r="R17" s="232"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -3138,42 +3207,42 @@
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="20"/>
-      <c r="I18" s="227"/>
+      <c r="I18" s="226"/>
       <c r="J18" s="119"/>
       <c r="K18" s="216"/>
       <c r="L18" s="119"/>
-      <c r="M18" s="232"/>
-      <c r="Q18" s="233"/>
-      <c r="R18" s="234"/>
+      <c r="M18" s="230"/>
+      <c r="Q18" s="231"/>
+      <c r="R18" s="232"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I19" s="227"/>
-      <c r="M19" s="232"/>
+      <c r="I19" s="226"/>
+      <c r="M19" s="230"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I20" s="228"/>
+      <c r="I20" s="227"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="Q17:Q18"/>
     <mergeCell ref="R17:R18"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3197,18 +3266,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="260" t="s">
+      <c r="E1" s="242" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="261"/>
+      <c r="F1" s="243"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="260" t="s">
+      <c r="H1" s="242" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="262"/>
-      <c r="J1" s="261"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="243"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -3226,7 +3295,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="247">
+      <c r="B2" s="245">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -3253,15 +3322,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="263">
+      <c r="K2" s="248">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="265">
+      <c r="L2" s="250">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="250">
+      <c r="M2" s="254">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -3272,7 +3341,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="249"/>
+      <c r="B3" s="246"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -3287,13 +3356,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="264"/>
-      <c r="L3" s="266"/>
-      <c r="M3" s="251"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="255"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="248"/>
+      <c r="B4" s="247"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -3308,9 +3377,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="264"/>
-      <c r="L4" s="266"/>
-      <c r="M4" s="251"/>
+      <c r="K4" s="249"/>
+      <c r="L4" s="251"/>
+      <c r="M4" s="255"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -3392,7 +3461,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="252">
+      <c r="B7" s="256">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -3409,22 +3478,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="254">
+      <c r="K7" s="258">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="256">
+      <c r="L7" s="260">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="258">
+      <c r="M7" s="262">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="253"/>
+      <c r="B8" s="257"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -3445,9 +3514,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="255"/>
-      <c r="L8" s="257"/>
-      <c r="M8" s="259"/>
+      <c r="K8" s="259"/>
+      <c r="L8" s="261"/>
+      <c r="M8" s="263"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3527,7 +3596,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="252">
+      <c r="B11" s="256">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3554,7 +3623,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="253"/>
+      <c r="B12" s="257"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3611,7 +3680,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="252">
+      <c r="B14" s="256">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3634,7 +3703,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="253"/>
+      <c r="B15" s="257"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3658,7 +3727,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="247">
+      <c r="B16" s="245">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3689,7 +3758,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="249"/>
+      <c r="B17" s="246"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3707,7 +3776,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="247">
+      <c r="B18" s="245">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3736,7 +3805,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="248"/>
+      <c r="B19" s="247"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3796,7 +3865,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="245">
+      <c r="B21" s="252">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3824,7 +3893,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="246"/>
+      <c r="B22" s="253"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3876,7 +3945,7 @@
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="237">
+      <c r="B24" s="235">
         <v>16</v>
       </c>
       <c r="C24" s="141"/>
@@ -3905,7 +3974,7 @@
       <c r="A25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="238"/>
+      <c r="B25" s="236"/>
       <c r="C25" s="142"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -3933,7 +4002,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="237">
+      <c r="B26" s="235">
         <v>17</v>
       </c>
       <c r="C26" s="161"/>
@@ -3964,7 +4033,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="244"/>
+      <c r="B27" s="264"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3995,7 +4064,7 @@
       <c r="A28" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="237">
+      <c r="B28" s="235">
         <v>18</v>
       </c>
       <c r="C28" s="141"/>
@@ -4017,7 +4086,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="238"/>
+      <c r="B29" s="236"/>
       <c r="C29" s="142"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -4043,7 +4112,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="237">
+      <c r="B30" s="235">
         <v>19</v>
       </c>
       <c r="C30" s="142"/>
@@ -4066,7 +4135,7 @@
       <c r="A31" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="238"/>
+      <c r="B31" s="236"/>
       <c r="C31" s="142"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -4093,7 +4162,7 @@
       <c r="A32" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="237">
+      <c r="B32" s="235">
         <v>20</v>
       </c>
       <c r="C32" s="142"/>
@@ -4115,7 +4184,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="238"/>
+      <c r="B33" s="236"/>
       <c r="C33" s="142"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -4168,7 +4237,7 @@
       <c r="M34" s="82"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="237">
+      <c r="B35" s="235">
         <v>22</v>
       </c>
       <c r="C35" s="96"/>
@@ -4195,7 +4264,7 @@
       <c r="A36" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="238"/>
+      <c r="B36" s="236"/>
       <c r="C36" s="142"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -4217,7 +4286,7 @@
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="237">
+      <c r="B37" s="235">
         <v>23</v>
       </c>
       <c r="C37" s="142"/>
@@ -4250,7 +4319,7 @@
       <c r="A38" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="238"/>
+      <c r="B38" s="236"/>
       <c r="C38" s="96"/>
       <c r="D38" s="82"/>
       <c r="E38" s="82"/>
@@ -4268,7 +4337,7 @@
       <c r="M38" s="82"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="237">
+      <c r="B39" s="235">
         <v>24</v>
       </c>
       <c r="C39" s="142"/>
@@ -4295,7 +4364,7 @@
       <c r="A40" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="244"/>
+      <c r="B40" s="264"/>
       <c r="C40" s="96"/>
       <c r="D40" s="82">
         <v>210</v>
@@ -4323,7 +4392,7 @@
       <c r="M40" s="82"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="237">
+      <c r="B41" s="235">
         <v>25</v>
       </c>
       <c r="C41" s="142"/>
@@ -4350,7 +4419,7 @@
       <c r="A42" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="244"/>
+      <c r="B42" s="264"/>
       <c r="C42" s="142"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -4368,7 +4437,7 @@
       <c r="M42" s="18"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="238"/>
+      <c r="B43" s="236"/>
       <c r="C43" s="142"/>
       <c r="D43" s="18">
         <v>190</v>
@@ -4397,7 +4466,7 @@
       <c r="A44" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="237">
+      <c r="B44" s="235">
         <v>26</v>
       </c>
       <c r="C44" s="142"/>
@@ -4423,7 +4492,7 @@
       <c r="M44" s="18"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="238"/>
+      <c r="B45" s="236"/>
       <c r="C45" s="142"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
@@ -4448,7 +4517,7 @@
       <c r="A46" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="237">
+      <c r="B46" s="235">
         <v>27</v>
       </c>
       <c r="C46" s="142"/>
@@ -4470,7 +4539,7 @@
       <c r="M46" s="18"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="244"/>
+      <c r="B47" s="264"/>
       <c r="C47" s="211"/>
       <c r="D47" s="132"/>
       <c r="E47" s="132"/>
@@ -4491,7 +4560,7 @@
       <c r="A48" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="237">
+      <c r="B48" s="235">
         <v>28</v>
       </c>
       <c r="C48" s="142"/>
@@ -4510,8 +4579,8 @@
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
     </row>
-    <row r="49" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="238"/>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="264"/>
       <c r="C49" s="142"/>
       <c r="D49" s="18">
         <v>175</v>
@@ -4526,28 +4595,42 @@
       <c r="H49" s="18">
         <v>30</v>
       </c>
-      <c r="I49" s="278">
+      <c r="I49" s="18">
         <v>20</v>
       </c>
-      <c r="J49" s="278">
+      <c r="J49" s="18">
         <v>20</v>
       </c>
       <c r="K49" s="18"/>
       <c r="L49" s="18"/>
       <c r="M49" s="18"/>
     </row>
+    <row r="50" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="236"/>
+      <c r="C50" s="142"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18">
+        <v>30</v>
+      </c>
+      <c r="G50" s="280">
+        <v>10</v>
+      </c>
+      <c r="H50" s="18">
+        <v>20</v>
+      </c>
+      <c r="I50" s="280">
+        <v>17</v>
+      </c>
+      <c r="J50" s="280">
+        <v>3</v>
+      </c>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B11:B12"/>
@@ -4555,6 +4638,15 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B30:B31"/>
@@ -4565,6 +4657,7 @@
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7771,10 +7864,10 @@
       <c r="CG23" s="49"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="239" t="s">
+      <c r="AG24" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="240"/>
+      <c r="AH24" s="238"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -7794,10 +7887,10 @@
       <c r="AV24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="239" t="s">
+      <c r="AZ24" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="240"/>
+      <c r="BA24" s="238"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -7817,10 +7910,10 @@
       <c r="BO24" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="239" t="s">
+      <c r="BR24" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="240"/>
+      <c r="BS24" s="238"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>
@@ -7843,10 +7936,10 @@
     </row>
     <row r="25" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="241" t="s">
+      <c r="B26" s="239" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="243"/>
+      <c r="C26" s="241"/>
       <c r="D26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7883,10 +7976,10 @@
       <c r="O26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="R26" s="241" t="s">
+      <c r="R26" s="239" t="s">
         <v>145</v>
       </c>
-      <c r="S26" s="243"/>
+      <c r="S26" s="241"/>
       <c r="T26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7923,10 +8016,10 @@
       <c r="AE26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AG26" s="241" t="s">
+      <c r="AG26" s="239" t="s">
         <v>145</v>
       </c>
-      <c r="AH26" s="243"/>
+      <c r="AH26" s="241"/>
       <c r="AI26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7963,10 +8056,10 @@
       <c r="AT26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AW26" s="241" t="s">
+      <c r="AW26" s="239" t="s">
         <v>145</v>
       </c>
-      <c r="AX26" s="243"/>
+      <c r="AX26" s="241"/>
       <c r="AY26" s="26" t="s">
         <v>43</v>
       </c>
@@ -8003,10 +8096,10 @@
       <c r="BJ26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="BM26" s="241" t="s">
+      <c r="BM26" s="239" t="s">
         <v>145</v>
       </c>
-      <c r="BN26" s="243"/>
+      <c r="BN26" s="241"/>
       <c r="BO26" s="26" t="s">
         <v>43</v>
       </c>
@@ -9000,7 +9093,7 @@
       <c r="AW32" s="163">
         <v>25</v>
       </c>
-      <c r="AX32" s="267">
+      <c r="AX32" s="273">
         <v>70</v>
       </c>
       <c r="AY32" s="9" t="s">
@@ -9038,7 +9131,7 @@
       <c r="BM32" s="163">
         <v>50</v>
       </c>
-      <c r="BN32" s="267">
+      <c r="BN32" s="273">
         <v>20</v>
       </c>
       <c r="BO32" s="9" t="s">
@@ -9187,7 +9280,7 @@
         <v>148</v>
       </c>
       <c r="AW33" s="163"/>
-      <c r="AX33" s="268"/>
+      <c r="AX33" s="274"/>
       <c r="AY33" s="9" t="s">
         <v>71</v>
       </c>
@@ -9223,7 +9316,7 @@
       <c r="BM33" s="140">
         <v>10</v>
       </c>
-      <c r="BN33" s="268"/>
+      <c r="BN33" s="274"/>
       <c r="BO33" s="9" t="s">
         <v>71</v>
       </c>
@@ -9374,7 +9467,7 @@
         <v>148</v>
       </c>
       <c r="AW34" s="140"/>
-      <c r="AX34" s="269"/>
+      <c r="AX34" s="275"/>
       <c r="AY34" s="9" t="s">
         <v>81</v>
       </c>
@@ -9412,7 +9505,7 @@
       <c r="BM34" s="165">
         <v>70</v>
       </c>
-      <c r="BN34" s="269"/>
+      <c r="BN34" s="275"/>
       <c r="BO34" s="9" t="s">
         <v>81</v>
       </c>
@@ -9643,10 +9736,10 @@
       </c>
     </row>
     <row r="36" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="239" t="s">
+      <c r="B36" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="240"/>
+      <c r="C36" s="238"/>
       <c r="D36" s="9">
         <f>SUM(B28:C35)</f>
         <v>512</v>
@@ -9664,10 +9757,10 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
       <c r="O36" s="102"/>
-      <c r="R36" s="239" t="s">
+      <c r="R36" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="S36" s="240"/>
+      <c r="S36" s="238"/>
       <c r="T36" s="9">
         <f>SUM(R28:S35)</f>
         <v>182</v>
@@ -9685,10 +9778,10 @@
       <c r="AC36" s="65"/>
       <c r="AD36" s="65"/>
       <c r="AE36" s="102"/>
-      <c r="AG36" s="239" t="s">
+      <c r="AG36" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="AH36" s="240"/>
+      <c r="AH36" s="238"/>
       <c r="AI36" s="9">
         <f>SUM(AG28:AH35)</f>
         <v>360</v>
@@ -9706,10 +9799,10 @@
       <c r="AR36" s="65"/>
       <c r="AS36" s="65"/>
       <c r="AT36" s="102"/>
-      <c r="AW36" s="239" t="s">
+      <c r="AW36" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="AX36" s="240"/>
+      <c r="AX36" s="238"/>
       <c r="AY36" s="9">
         <f>SUM(AW28:AX35)</f>
         <v>200</v>
@@ -9727,10 +9820,10 @@
       <c r="BH36" s="65"/>
       <c r="BI36" s="65"/>
       <c r="BJ36" s="102"/>
-      <c r="BM36" s="239" t="s">
+      <c r="BM36" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="BN36" s="240"/>
+      <c r="BN36" s="238"/>
       <c r="BO36" s="9">
         <f>SUM(BM28:BN35)</f>
         <v>260</v>
@@ -9750,10 +9843,10 @@
     </row>
     <row r="37" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="241" t="s">
+      <c r="B38" s="239" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="243"/>
+      <c r="C38" s="241"/>
       <c r="D38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9793,10 +9886,10 @@
       <c r="P38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="S38" s="241" t="s">
+      <c r="S38" s="239" t="s">
         <v>145</v>
       </c>
-      <c r="T38" s="243"/>
+      <c r="T38" s="241"/>
       <c r="U38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9836,11 +9929,11 @@
       <c r="AG38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="AJ38" s="241" t="s">
+      <c r="AJ38" s="239" t="s">
         <v>145</v>
       </c>
-      <c r="AK38" s="242"/>
-      <c r="AL38" s="243"/>
+      <c r="AK38" s="240"/>
+      <c r="AL38" s="241"/>
       <c r="AM38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9885,11 +9978,11 @@
         <f ca="1">TODAY()</f>
         <v>45288</v>
       </c>
-      <c r="BD38" s="241" t="s">
+      <c r="BD38" s="239" t="s">
         <v>145</v>
       </c>
-      <c r="BE38" s="242"/>
-      <c r="BF38" s="243"/>
+      <c r="BE38" s="240"/>
+      <c r="BF38" s="241"/>
       <c r="BG38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9929,11 +10022,11 @@
       <c r="BS38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="BW38" s="241" t="s">
+      <c r="BW38" s="239" t="s">
         <v>145</v>
       </c>
-      <c r="BX38" s="242"/>
-      <c r="BY38" s="243"/>
+      <c r="BX38" s="240"/>
+      <c r="BY38" s="241"/>
       <c r="BZ38" s="26" t="s">
         <v>43</v>
       </c>
@@ -10885,7 +10978,7 @@
     </row>
     <row r="44" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="163"/>
-      <c r="C44" s="267">
+      <c r="C44" s="273">
         <v>55</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -10923,10 +11016,10 @@
       <c r="P44" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S44" s="276">
+      <c r="S44" s="266">
         <v>25</v>
       </c>
-      <c r="T44" s="267">
+      <c r="T44" s="273">
         <v>55</v>
       </c>
       <c r="U44" s="9" t="s">
@@ -10935,7 +11028,7 @@
       <c r="V44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="W44" s="270" t="s">
+      <c r="W44" s="268" t="s">
         <v>105</v>
       </c>
       <c r="X44" s="83" t="s">
@@ -10964,10 +11057,10 @@
       <c r="AG44" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="AJ44" s="276">
+      <c r="AJ44" s="266">
         <v>50</v>
       </c>
-      <c r="AK44" s="267">
+      <c r="AK44" s="273">
         <v>10</v>
       </c>
       <c r="AL44" s="190"/>
@@ -10977,7 +11070,7 @@
       <c r="AN44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="AO44" s="270" t="s">
+      <c r="AO44" s="268" t="s">
         <v>105</v>
       </c>
       <c r="AP44" s="83" t="s">
@@ -11007,7 +11100,7 @@
         <v>168</v>
       </c>
       <c r="AZ44" s="49"/>
-      <c r="BD44" s="276">
+      <c r="BD44" s="266">
         <v>50</v>
       </c>
       <c r="BE44" s="208"/>
@@ -11018,7 +11111,7 @@
       <c r="BH44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="BI44" s="270" t="s">
+      <c r="BI44" s="268" t="s">
         <v>105</v>
       </c>
       <c r="BJ44" s="83" t="s">
@@ -11047,7 +11140,7 @@
       <c r="BS44" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="BW44" s="276">
+      <c r="BW44" s="266">
         <v>25</v>
       </c>
       <c r="BX44" s="208"/>
@@ -11058,7 +11151,7 @@
       <c r="CA44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="CB44" s="270" t="s">
+      <c r="CB44" s="268" t="s">
         <v>105</v>
       </c>
       <c r="CC44" s="83" t="s">
@@ -11090,7 +11183,7 @@
     </row>
     <row r="45" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="140"/>
-      <c r="C45" s="268"/>
+      <c r="C45" s="274"/>
       <c r="D45" s="9" t="s">
         <v>71</v>
       </c>
@@ -11124,15 +11217,15 @@
       <c r="P45" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S45" s="277"/>
-      <c r="T45" s="269"/>
+      <c r="S45" s="267"/>
+      <c r="T45" s="275"/>
       <c r="U45" s="9" t="s">
         <v>71</v>
       </c>
       <c r="V45" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="W45" s="271"/>
+      <c r="W45" s="269"/>
       <c r="X45" s="182" t="s">
         <v>163</v>
       </c>
@@ -11159,8 +11252,8 @@
       <c r="AG45" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="AJ45" s="277"/>
-      <c r="AK45" s="269"/>
+      <c r="AJ45" s="267"/>
+      <c r="AK45" s="275"/>
       <c r="AL45" s="191"/>
       <c r="AM45" s="9" t="s">
         <v>71</v>
@@ -11168,7 +11261,7 @@
       <c r="AN45" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="AO45" s="271"/>
+      <c r="AO45" s="269"/>
       <c r="AP45" s="182" t="s">
         <v>163</v>
       </c>
@@ -11196,7 +11289,7 @@
         <v>168</v>
       </c>
       <c r="AZ45" s="49"/>
-      <c r="BD45" s="277"/>
+      <c r="BD45" s="267"/>
       <c r="BE45" s="165">
         <v>20</v>
       </c>
@@ -11207,7 +11300,7 @@
       <c r="BH45" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="BI45" s="271"/>
+      <c r="BI45" s="269"/>
       <c r="BJ45" s="182" t="s">
         <v>163</v>
       </c>
@@ -11234,7 +11327,7 @@
       <c r="BS45" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="BW45" s="277"/>
+      <c r="BW45" s="267"/>
       <c r="BX45" s="165"/>
       <c r="BY45" s="191"/>
       <c r="BZ45" s="9" t="s">
@@ -11243,7 +11336,7 @@
       <c r="CA45" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="CB45" s="271"/>
+      <c r="CB45" s="269"/>
       <c r="CC45" s="182" t="s">
         <v>163</v>
       </c>
@@ -11273,7 +11366,7 @@
     </row>
     <row r="46" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="165"/>
-      <c r="C46" s="269"/>
+      <c r="C46" s="275"/>
       <c r="D46" s="9" t="s">
         <v>81</v>
       </c>
@@ -11700,10 +11793,10 @@
       </c>
     </row>
     <row r="48" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="239" t="s">
+      <c r="B48" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="240"/>
+      <c r="C48" s="238"/>
       <c r="D48" s="9">
         <f>SUM(B40:C47)</f>
         <v>200</v>
@@ -11722,10 +11815,10 @@
       <c r="N48" s="65"/>
       <c r="O48" s="65"/>
       <c r="P48" s="168"/>
-      <c r="S48" s="239" t="s">
+      <c r="S48" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="240"/>
+      <c r="T48" s="238"/>
       <c r="U48" s="9">
         <f>SUM(S40:T47)</f>
         <v>296</v>
@@ -11878,11 +11971,11 @@
       <c r="AN49" s="25"/>
       <c r="AO49" s="119"/>
       <c r="AP49" s="119"/>
-      <c r="AQ49" s="272"/>
+      <c r="AQ49" s="270"/>
       <c r="AS49" s="192"/>
       <c r="AT49" s="2"/>
-      <c r="AU49" s="233"/>
-      <c r="AV49" s="234"/>
+      <c r="AU49" s="231"/>
+      <c r="AV49" s="232"/>
       <c r="AW49" s="1"/>
       <c r="AX49" s="1"/>
       <c r="AY49" s="24"/>
@@ -11894,11 +11987,11 @@
       <c r="BH49" s="25"/>
       <c r="BI49" s="119"/>
       <c r="BJ49" s="119"/>
-      <c r="BK49" s="272"/>
+      <c r="BK49" s="270"/>
       <c r="BM49" s="192"/>
       <c r="BN49" s="2"/>
-      <c r="BO49" s="233"/>
-      <c r="BP49" s="234"/>
+      <c r="BO49" s="231"/>
+      <c r="BP49" s="232"/>
       <c r="BQ49" s="1"/>
       <c r="BR49" s="1"/>
       <c r="BS49" s="46"/>
@@ -11909,20 +12002,20 @@
       <c r="CA49" s="25"/>
       <c r="CB49" s="119"/>
       <c r="CC49" s="119"/>
-      <c r="CD49" s="272"/>
+      <c r="CD49" s="270"/>
       <c r="CF49" s="192"/>
       <c r="CG49" s="2"/>
-      <c r="CH49" s="233"/>
-      <c r="CI49" s="234"/>
+      <c r="CH49" s="231"/>
+      <c r="CI49" s="232"/>
       <c r="CJ49" s="1"/>
       <c r="CK49" s="1"/>
       <c r="CL49" s="46"/>
     </row>
     <row r="50" spans="36:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ50" s="239" t="s">
+      <c r="AJ50" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="AK50" s="240"/>
+      <c r="AK50" s="238"/>
       <c r="AL50" s="189" t="s">
         <v>179</v>
       </c>
@@ -11933,19 +12026,19 @@
       <c r="AN50" s="25"/>
       <c r="AO50" s="119"/>
       <c r="AP50" s="119"/>
-      <c r="AQ50" s="272"/>
+      <c r="AQ50" s="270"/>
       <c r="AS50" s="192"/>
       <c r="AT50" s="2"/>
-      <c r="AU50" s="233"/>
-      <c r="AV50" s="234"/>
+      <c r="AU50" s="231"/>
+      <c r="AV50" s="232"/>
       <c r="AW50" s="1"/>
       <c r="AX50" s="1"/>
       <c r="AY50" s="24"/>
       <c r="AZ50" s="49"/>
-      <c r="BD50" s="239" t="s">
+      <c r="BD50" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="BE50" s="240"/>
+      <c r="BE50" s="238"/>
       <c r="BF50" s="189"/>
       <c r="BG50" s="9">
         <f>SUM(BD40:BF48)</f>
@@ -11954,18 +12047,18 @@
       <c r="BH50" s="25"/>
       <c r="BI50" s="119"/>
       <c r="BJ50" s="119"/>
-      <c r="BK50" s="272"/>
+      <c r="BK50" s="270"/>
       <c r="BM50" s="192"/>
       <c r="BN50" s="2"/>
-      <c r="BO50" s="233"/>
-      <c r="BP50" s="234"/>
+      <c r="BO50" s="231"/>
+      <c r="BP50" s="232"/>
       <c r="BQ50" s="1"/>
       <c r="BR50" s="1"/>
       <c r="BS50" s="46"/>
-      <c r="BW50" s="239" t="s">
+      <c r="BW50" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="BX50" s="240"/>
+      <c r="BX50" s="238"/>
       <c r="BY50" s="189"/>
       <c r="BZ50" s="9">
         <f>SUM(BW40:BY48)</f>
@@ -11974,11 +12067,11 @@
       <c r="CA50" s="25"/>
       <c r="CB50" s="119"/>
       <c r="CC50" s="119"/>
-      <c r="CD50" s="272"/>
+      <c r="CD50" s="270"/>
       <c r="CF50" s="192"/>
       <c r="CG50" s="2"/>
-      <c r="CH50" s="233"/>
-      <c r="CI50" s="234"/>
+      <c r="CH50" s="231"/>
+      <c r="CI50" s="232"/>
       <c r="CJ50" s="1"/>
       <c r="CK50" s="1"/>
       <c r="CL50" s="46"/>
@@ -11991,14 +12084,14 @@
       <c r="AN51" s="114"/>
       <c r="AO51" s="201"/>
       <c r="AP51" s="202"/>
-      <c r="AQ51" s="273"/>
+      <c r="AQ51" s="271"/>
       <c r="AR51" s="201"/>
       <c r="AS51" s="203"/>
       <c r="AT51" s="116" t="s">
         <v>160</v>
       </c>
-      <c r="AU51" s="274"/>
-      <c r="AV51" s="275"/>
+      <c r="AU51" s="272"/>
+      <c r="AV51" s="265"/>
       <c r="AW51" s="65"/>
       <c r="AX51" s="65"/>
       <c r="AY51" s="115"/>
@@ -12010,14 +12103,14 @@
       <c r="BH51" s="114"/>
       <c r="BI51" s="201"/>
       <c r="BJ51" s="202"/>
-      <c r="BK51" s="273"/>
+      <c r="BK51" s="271"/>
       <c r="BL51" s="201"/>
       <c r="BM51" s="203"/>
       <c r="BN51" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="BO51" s="274"/>
-      <c r="BP51" s="275"/>
+      <c r="BO51" s="272"/>
+      <c r="BP51" s="265"/>
       <c r="BQ51" s="65"/>
       <c r="BR51" s="65"/>
       <c r="BS51" s="168"/>
@@ -12028,34 +12121,36 @@
       <c r="CA51" s="114"/>
       <c r="CB51" s="201"/>
       <c r="CC51" s="202"/>
-      <c r="CD51" s="273"/>
+      <c r="CD51" s="271"/>
       <c r="CE51" s="201"/>
       <c r="CF51" s="203" t="s">
         <v>180</v>
       </c>
       <c r="CG51" s="79"/>
-      <c r="CH51" s="274"/>
-      <c r="CI51" s="275"/>
+      <c r="CH51" s="272"/>
+      <c r="CI51" s="265"/>
       <c r="CJ51" s="65"/>
       <c r="CK51" s="65"/>
       <c r="CL51" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="CI49:CI51"/>
-    <mergeCell ref="BW50:BX50"/>
-    <mergeCell ref="BW38:BY38"/>
-    <mergeCell ref="BW44:BW45"/>
-    <mergeCell ref="CB44:CB45"/>
-    <mergeCell ref="CD49:CD51"/>
-    <mergeCell ref="CH49:CH51"/>
-    <mergeCell ref="BP49:BP51"/>
-    <mergeCell ref="BD50:BE50"/>
-    <mergeCell ref="BD38:BF38"/>
-    <mergeCell ref="BD44:BD45"/>
-    <mergeCell ref="BI44:BI45"/>
-    <mergeCell ref="BK49:BK51"/>
-    <mergeCell ref="BO49:BO51"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="AO44:AO45"/>
+    <mergeCell ref="AQ49:AQ51"/>
+    <mergeCell ref="AU49:AU51"/>
+    <mergeCell ref="AV49:AV51"/>
+    <mergeCell ref="AJ50:AK50"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="AJ38:AL38"/>
+    <mergeCell ref="AJ44:AJ45"/>
+    <mergeCell ref="AK44:AK45"/>
     <mergeCell ref="BR24:BS24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
@@ -12071,22 +12166,20 @@
     <mergeCell ref="BM36:BN36"/>
     <mergeCell ref="AG24:AH24"/>
     <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="AQ49:AQ51"/>
-    <mergeCell ref="AU49:AU51"/>
-    <mergeCell ref="AV49:AV51"/>
-    <mergeCell ref="AJ50:AK50"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="AJ38:AL38"/>
-    <mergeCell ref="AJ44:AJ45"/>
-    <mergeCell ref="AK44:AK45"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="AO44:AO45"/>
+    <mergeCell ref="BP49:BP51"/>
+    <mergeCell ref="BD50:BE50"/>
+    <mergeCell ref="BD38:BF38"/>
+    <mergeCell ref="BD44:BD45"/>
+    <mergeCell ref="BI44:BI45"/>
+    <mergeCell ref="BK49:BK51"/>
+    <mergeCell ref="BO49:BO51"/>
+    <mergeCell ref="CI49:CI51"/>
+    <mergeCell ref="BW50:BX50"/>
+    <mergeCell ref="BW38:BY38"/>
+    <mergeCell ref="BW44:BW45"/>
+    <mergeCell ref="CB44:CB45"/>
+    <mergeCell ref="CD49:CD51"/>
+    <mergeCell ref="CH49:CH51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Usage_S_1.0.6.xlsx
+++ b/Usage_S_1.0.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C58808D-A524-4397-9CCB-0BB0DA422EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62922F38-E21A-4EFB-9AF8-D7A0BF98C1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="206">
   <si>
     <t>UnSettled</t>
   </si>
@@ -648,6 +648,12 @@
   </si>
   <si>
     <t>Food - BB</t>
+  </si>
+  <si>
+    <t>X-Professional - (5) -X</t>
+  </si>
+  <si>
+    <t>X-Professional - (6) -X</t>
   </si>
 </sst>
 </file>
@@ -1505,7 +1511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2060,6 +2066,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2096,15 +2121,18 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2120,50 +2148,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2194,26 +2222,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2501,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2539,15 +2548,15 @@
       <c r="B2" s="34">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="235">
+      <c r="C2" s="242">
         <f>B3+B4</f>
         <v>0</v>
       </c>
-      <c r="E2" s="239" t="s">
+      <c r="E2" s="246" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="240"/>
-      <c r="G2" s="241"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="248"/>
       <c r="H2" s="26" t="s">
         <v>43</v>
       </c>
@@ -2592,23 +2601,23 @@
       </c>
       <c r="W2" s="98">
         <f ca="1">TODAY()</f>
-        <v>45288</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="233" t="s">
+      <c r="A3" s="240" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
       </c>
-      <c r="C3" s="236"/>
+      <c r="C3" s="243"/>
       <c r="D3" s="162" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="234"/>
+      <c r="A4" s="241"/>
       <c r="B4" s="34">
         <v>0</v>
       </c>
@@ -2618,9 +2627,7 @@
       <c r="E4" s="140">
         <v>10</v>
       </c>
-      <c r="F4" s="205">
-        <v>10</v>
-      </c>
+      <c r="F4" s="205"/>
       <c r="G4" s="164"/>
       <c r="H4" s="9" t="s">
         <v>199</v>
@@ -2632,7 +2639,7 @@
         <v>187</v>
       </c>
       <c r="K4" s="194" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="L4" s="83"/>
       <c r="M4" s="224" t="s">
@@ -2648,10 +2655,10 @@
         <v>30</v>
       </c>
       <c r="Q4" s="154">
-        <v>0.4375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="S4" s="154">
-        <v>0.4375</v>
+        <v>0.85555555555555562</v>
       </c>
       <c r="U4" s="24" t="s">
         <v>184</v>
@@ -2677,7 +2684,7 @@
         <v>165</v>
       </c>
       <c r="K5" s="194" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="L5" s="167" t="s">
         <v>142</v>
@@ -2695,10 +2702,10 @@
         <v>86</v>
       </c>
       <c r="Q5" s="154">
-        <v>0.91666666666666663</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="S5" s="154">
-        <v>0.4375</v>
+        <v>0.85555555555555562</v>
       </c>
       <c r="U5" s="24" t="s">
         <v>184</v>
@@ -2706,18 +2713,14 @@
     </row>
     <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>1575</v>
+        <v>1685</v>
       </c>
       <c r="C6">
-        <v>425</v>
+        <v>290</v>
       </c>
       <c r="E6" s="218"/>
-      <c r="F6" s="207">
-        <v>30</v>
-      </c>
-      <c r="G6" s="127">
-        <v>20</v>
-      </c>
+      <c r="F6" s="207"/>
+      <c r="G6" s="127"/>
       <c r="H6" s="9" t="s">
         <v>203</v>
       </c>
@@ -2761,12 +2764,8 @@
         <v>0</v>
       </c>
       <c r="E7" s="165"/>
-      <c r="F7" s="207">
-        <v>20</v>
-      </c>
-      <c r="G7" s="127">
-        <v>10</v>
-      </c>
+      <c r="F7" s="207"/>
+      <c r="G7" s="127"/>
       <c r="H7" s="9" t="s">
         <v>188</v>
       </c>
@@ -2776,9 +2775,7 @@
       <c r="J7" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="194" t="s">
-        <v>185</v>
-      </c>
+      <c r="K7" s="194"/>
       <c r="L7" s="83" t="s">
         <v>139</v>
       </c>
@@ -2809,9 +2806,7 @@
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="219"/>
-      <c r="F8" s="208">
-        <v>50</v>
-      </c>
+      <c r="F8" s="208"/>
       <c r="G8" s="190"/>
       <c r="H8" s="9" t="s">
         <v>72</v>
@@ -2852,11 +2847,9 @@
       </c>
       <c r="B9" s="8">
         <f>7000+B6-C2</f>
-        <v>8575</v>
-      </c>
-      <c r="E9" s="163">
-        <v>14</v>
-      </c>
+        <v>8685</v>
+      </c>
+      <c r="E9" s="163"/>
       <c r="F9" s="165"/>
       <c r="G9" s="177"/>
       <c r="H9" s="9" t="s">
@@ -2868,9 +2861,7 @@
       <c r="J9" s="213" t="s">
         <v>165</v>
       </c>
-      <c r="K9" s="194" t="s">
-        <v>185</v>
-      </c>
+      <c r="K9" s="194"/>
       <c r="L9" s="223" t="s">
         <v>163</v>
       </c>
@@ -2899,9 +2890,7 @@
     <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="220"/>
       <c r="F10" s="165"/>
-      <c r="G10" s="177">
-        <v>7</v>
-      </c>
+      <c r="G10" s="177"/>
       <c r="H10" s="9" t="s">
         <v>81</v>
       </c>
@@ -2941,9 +2930,7 @@
         <f>B9-B13</f>
         <v>0</v>
       </c>
-      <c r="E11" s="221">
-        <v>5</v>
-      </c>
+      <c r="E11" s="221"/>
       <c r="F11" s="209"/>
       <c r="G11" s="184"/>
       <c r="H11" s="9" t="s">
@@ -2985,9 +2972,7 @@
     </row>
     <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="165"/>
-      <c r="F12" s="205">
-        <v>55</v>
-      </c>
+      <c r="F12" s="205"/>
       <c r="G12" s="164"/>
       <c r="H12" s="28" t="s">
         <v>128</v>
@@ -2996,9 +2981,7 @@
         <v>17</v>
       </c>
       <c r="J12" s="213"/>
-      <c r="K12" s="194" t="s">
-        <v>190</v>
-      </c>
+      <c r="K12" s="194"/>
       <c r="L12" s="224" t="s">
         <v>123</v>
       </c>
@@ -3031,15 +3014,11 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>8575</v>
-      </c>
-      <c r="E13" s="36">
-        <v>1</v>
-      </c>
+        <v>8685</v>
+      </c>
+      <c r="E13" s="36"/>
       <c r="F13" s="205"/>
-      <c r="G13" s="15">
-        <v>3</v>
-      </c>
+      <c r="G13" s="15"/>
       <c r="H13" s="9" t="s">
         <v>189</v>
       </c>
@@ -3049,9 +3028,7 @@
       <c r="J13" s="228" t="s">
         <v>186</v>
       </c>
-      <c r="K13" s="195" t="s">
-        <v>190</v>
-      </c>
+      <c r="K13" s="195"/>
       <c r="L13" s="183" t="s">
         <v>155</v>
       </c>
@@ -3070,7 +3047,7 @@
       <c r="Q13" s="154">
         <v>0.6875</v>
       </c>
-      <c r="R13" s="285"/>
+      <c r="R13"/>
       <c r="S13" s="154">
         <v>0.84375</v>
       </c>
@@ -3082,12 +3059,8 @@
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="205"/>
-      <c r="F14" s="205">
-        <v>10</v>
-      </c>
-      <c r="G14" s="184">
-        <v>30</v>
-      </c>
+      <c r="F14" s="205"/>
+      <c r="G14" s="184"/>
       <c r="H14" s="9" t="s">
         <v>9</v>
       </c>
@@ -3110,7 +3083,7 @@
       <c r="Q14" s="154">
         <v>0.91666666666666663</v>
       </c>
-      <c r="R14" s="285"/>
+      <c r="R14"/>
       <c r="S14" s="154">
         <v>0.91666666666666663</v>
       </c>
@@ -3129,22 +3102,20 @@
       <c r="D15" s="25"/>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
-      <c r="G15" s="177">
-        <v>10</v>
-      </c>
+      <c r="G15" s="177"/>
       <c r="H15" s="9" t="s">
         <v>201</v>
       </c>
       <c r="I15" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="277"/>
-      <c r="K15" s="278"/>
+      <c r="J15" s="231"/>
+      <c r="K15" s="232"/>
       <c r="L15" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="M15" s="279"/>
-      <c r="N15" s="276" t="s">
+      <c r="M15" s="233"/>
+      <c r="N15" s="9" t="s">
         <v>202</v>
       </c>
       <c r="O15" s="74"/>
@@ -3154,7 +3125,7 @@
       <c r="Q15" s="154">
         <v>0.91666666666666663</v>
       </c>
-      <c r="R15" s="285" t="s">
+      <c r="R15" t="s">
         <v>126</v>
       </c>
       <c r="S15" s="154">
@@ -3167,11 +3138,7 @@
     <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
-      <c r="E16" s="282"/>
-      <c r="F16" s="282"/>
-      <c r="G16" s="283"/>
-      <c r="H16" s="284"/>
-      <c r="I16" s="281"/>
+      <c r="I16" s="234"/>
       <c r="J16" s="119"/>
       <c r="K16" s="216"/>
       <c r="L16" s="119"/>
@@ -3179,21 +3146,21 @@
     <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
-      <c r="E17" s="237" t="s">
+      <c r="E17" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="238"/>
+      <c r="F17" s="245"/>
       <c r="G17" s="189"/>
       <c r="H17" s="9">
         <f>SUM(E4:G15)</f>
-        <v>305</v>
+        <v>30</v>
       </c>
       <c r="I17" s="26"/>
       <c r="J17" s="119"/>
       <c r="K17" s="216"/>
       <c r="L17" s="119"/>
-      <c r="Q17" s="231"/>
-      <c r="R17" s="232"/>
+      <c r="Q17" s="238"/>
+      <c r="R17" s="239"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -3211,13 +3178,13 @@
       <c r="J18" s="119"/>
       <c r="K18" s="216"/>
       <c r="L18" s="119"/>
-      <c r="M18" s="230"/>
-      <c r="Q18" s="231"/>
-      <c r="R18" s="232"/>
+      <c r="M18" s="237"/>
+      <c r="Q18" s="238"/>
+      <c r="R18" s="239"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I19" s="226"/>
-      <c r="M19" s="230"/>
+      <c r="M19" s="237"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I20" s="227"/>
@@ -3239,10 +3206,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:B50"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50:O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3266,18 +3233,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="242" t="s">
+      <c r="E1" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="243"/>
+      <c r="F1" s="252"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="242" t="s">
+      <c r="H1" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="244"/>
-      <c r="J1" s="243"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="252"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -3295,7 +3262,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="245">
+      <c r="B2" s="253">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -3322,26 +3289,26 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="248">
+      <c r="K2" s="256">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="250">
+      <c r="L2" s="270">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="254">
+      <c r="M2" s="260">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
-        <f>SUM(E2:J49)</f>
-        <v>8535</v>
+        <f>SUM(E2:J51)</f>
+        <v>8645</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="246"/>
+      <c r="B3" s="254"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -3356,13 +3323,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="251"/>
-      <c r="M3" s="255"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="271"/>
+      <c r="M3" s="261"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="247"/>
+      <c r="B4" s="255"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -3377,9 +3344,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="249"/>
-      <c r="L4" s="251"/>
-      <c r="M4" s="255"/>
+      <c r="K4" s="257"/>
+      <c r="L4" s="271"/>
+      <c r="M4" s="261"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -3461,7 +3428,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="256">
+      <c r="B7" s="262">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -3478,22 +3445,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="258">
+      <c r="K7" s="264">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="260">
+      <c r="L7" s="266">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="262">
+      <c r="M7" s="268">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="257"/>
+      <c r="B8" s="263"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -3514,9 +3481,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="259"/>
-      <c r="L8" s="261"/>
-      <c r="M8" s="263"/>
+      <c r="K8" s="265"/>
+      <c r="L8" s="267"/>
+      <c r="M8" s="269"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3596,7 +3563,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="256">
+      <c r="B11" s="262">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3623,7 +3590,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="257"/>
+      <c r="B12" s="263"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3680,7 +3647,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="256">
+      <c r="B14" s="262">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3703,7 +3670,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="257"/>
+      <c r="B15" s="263"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3727,7 +3694,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="245">
+      <c r="B16" s="253">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3758,7 +3725,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="246"/>
+      <c r="B17" s="254"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3776,7 +3743,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="245">
+      <c r="B18" s="253">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3805,7 +3772,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="247"/>
+      <c r="B19" s="255"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3865,7 +3832,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="252">
+      <c r="B21" s="258">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3893,7 +3860,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="253"/>
+      <c r="B22" s="259"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3945,7 +3912,7 @@
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="235">
+      <c r="B24" s="242">
         <v>16</v>
       </c>
       <c r="C24" s="141"/>
@@ -3974,7 +3941,7 @@
       <c r="A25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="236"/>
+      <c r="B25" s="243"/>
       <c r="C25" s="142"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -4002,7 +3969,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="235">
+      <c r="B26" s="242">
         <v>17</v>
       </c>
       <c r="C26" s="161"/>
@@ -4033,7 +4000,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="264"/>
+      <c r="B27" s="249"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -4064,7 +4031,7 @@
       <c r="A28" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="235">
+      <c r="B28" s="242">
         <v>18</v>
       </c>
       <c r="C28" s="141"/>
@@ -4086,7 +4053,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="236"/>
+      <c r="B29" s="243"/>
       <c r="C29" s="142"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -4112,7 +4079,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="235">
+      <c r="B30" s="242">
         <v>19</v>
       </c>
       <c r="C30" s="142"/>
@@ -4135,7 +4102,7 @@
       <c r="A31" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="236"/>
+      <c r="B31" s="243"/>
       <c r="C31" s="142"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -4162,7 +4129,7 @@
       <c r="A32" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="235">
+      <c r="B32" s="242">
         <v>20</v>
       </c>
       <c r="C32" s="142"/>
@@ -4184,7 +4151,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="236"/>
+      <c r="B33" s="243"/>
       <c r="C33" s="142"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -4237,7 +4204,7 @@
       <c r="M34" s="82"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="235">
+      <c r="B35" s="242">
         <v>22</v>
       </c>
       <c r="C35" s="96"/>
@@ -4264,7 +4231,7 @@
       <c r="A36" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="236"/>
+      <c r="B36" s="243"/>
       <c r="C36" s="142"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -4286,7 +4253,7 @@
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="235">
+      <c r="B37" s="242">
         <v>23</v>
       </c>
       <c r="C37" s="142"/>
@@ -4319,7 +4286,7 @@
       <c r="A38" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="236"/>
+      <c r="B38" s="243"/>
       <c r="C38" s="96"/>
       <c r="D38" s="82"/>
       <c r="E38" s="82"/>
@@ -4337,7 +4304,7 @@
       <c r="M38" s="82"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="235">
+      <c r="B39" s="242">
         <v>24</v>
       </c>
       <c r="C39" s="142"/>
@@ -4364,7 +4331,7 @@
       <c r="A40" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="264"/>
+      <c r="B40" s="249"/>
       <c r="C40" s="96"/>
       <c r="D40" s="82">
         <v>210</v>
@@ -4392,7 +4359,7 @@
       <c r="M40" s="82"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="235">
+      <c r="B41" s="242">
         <v>25</v>
       </c>
       <c r="C41" s="142"/>
@@ -4419,7 +4386,7 @@
       <c r="A42" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="264"/>
+      <c r="B42" s="249"/>
       <c r="C42" s="142"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -4437,7 +4404,7 @@
       <c r="M42" s="18"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="236"/>
+      <c r="B43" s="243"/>
       <c r="C43" s="142"/>
       <c r="D43" s="18">
         <v>190</v>
@@ -4466,7 +4433,7 @@
       <c r="A44" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="235">
+      <c r="B44" s="242">
         <v>26</v>
       </c>
       <c r="C44" s="142"/>
@@ -4492,7 +4459,7 @@
       <c r="M44" s="18"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="236"/>
+      <c r="B45" s="243"/>
       <c r="C45" s="142"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
@@ -4517,7 +4484,7 @@
       <c r="A46" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="235">
+      <c r="B46" s="242">
         <v>27</v>
       </c>
       <c r="C46" s="142"/>
@@ -4539,7 +4506,7 @@
       <c r="M46" s="18"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="264"/>
+      <c r="B47" s="249"/>
       <c r="C47" s="211"/>
       <c r="D47" s="132"/>
       <c r="E47" s="132"/>
@@ -4560,7 +4527,7 @@
       <c r="A48" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="235">
+      <c r="B48" s="242">
         <v>28</v>
       </c>
       <c r="C48" s="142"/>
@@ -4579,8 +4546,8 @@
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="264"/>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="249"/>
       <c r="C49" s="142"/>
       <c r="D49" s="18">
         <v>175</v>
@@ -4605,29 +4572,50 @@
       <c r="L49" s="18"/>
       <c r="M49" s="18"/>
     </row>
-    <row r="50" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="236"/>
-      <c r="C50" s="142"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18">
+    <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="249"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82">
         <v>30</v>
       </c>
-      <c r="G50" s="280">
+      <c r="G50" s="82">
         <v>10</v>
       </c>
-      <c r="H50" s="18">
+      <c r="H50" s="82">
         <v>20</v>
       </c>
-      <c r="I50" s="280">
-        <v>17</v>
-      </c>
-      <c r="J50" s="280">
+      <c r="I50" s="82">
+        <v>17</v>
+      </c>
+      <c r="J50" s="82">
         <v>3</v>
       </c>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
+      <c r="M50" s="82"/>
+    </row>
+    <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="34">
+        <v>29</v>
+      </c>
+      <c r="C51" s="142"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="284">
+        <v>30</v>
+      </c>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -4639,11 +4627,6 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="L2:L4"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="K2:K4"/>
@@ -4652,12 +4635,17 @@
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4665,10 +4653,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EF39B9-450C-4C51-9807-7AFD5CC29C14}">
-  <dimension ref="A1:CL51"/>
+  <dimension ref="A1:CL68"/>
   <sheetViews>
-    <sheetView topLeftCell="BT34" workbookViewId="0">
-      <selection activeCell="CH53" sqref="CH53"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:R68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6218,7 +6206,7 @@
       </c>
       <c r="AC14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45288</v>
+        <v>45289</v>
       </c>
       <c r="AG14" s="99" t="s">
         <v>44</v>
@@ -6263,7 +6251,7 @@
       <c r="AU14" s="43"/>
       <c r="AV14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45288</v>
+        <v>45289</v>
       </c>
       <c r="AZ14" s="99" t="s">
         <v>44</v>
@@ -6308,7 +6296,7 @@
       <c r="BN14" s="43"/>
       <c r="BO14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45288</v>
+        <v>45289</v>
       </c>
       <c r="BR14" s="158" t="s">
         <v>44</v>
@@ -6353,7 +6341,7 @@
       <c r="CF14" s="43"/>
       <c r="CG14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45288</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="15" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7864,10 +7852,10 @@
       <c r="CG23" s="49"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="237" t="s">
+      <c r="AG24" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="238"/>
+      <c r="AH24" s="245"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -7887,10 +7875,10 @@
       <c r="AV24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="237" t="s">
+      <c r="AZ24" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="238"/>
+      <c r="BA24" s="245"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -7910,10 +7898,10 @@
       <c r="BO24" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="237" t="s">
+      <c r="BR24" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="238"/>
+      <c r="BS24" s="245"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>
@@ -7936,10 +7924,10 @@
     </row>
     <row r="25" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="239" t="s">
+      <c r="B26" s="246" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="241"/>
+      <c r="C26" s="248"/>
       <c r="D26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7976,10 +7964,10 @@
       <c r="O26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="R26" s="239" t="s">
+      <c r="R26" s="246" t="s">
         <v>145</v>
       </c>
-      <c r="S26" s="241"/>
+      <c r="S26" s="248"/>
       <c r="T26" s="26" t="s">
         <v>43</v>
       </c>
@@ -8016,10 +8004,10 @@
       <c r="AE26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AG26" s="239" t="s">
+      <c r="AG26" s="246" t="s">
         <v>145</v>
       </c>
-      <c r="AH26" s="241"/>
+      <c r="AH26" s="248"/>
       <c r="AI26" s="26" t="s">
         <v>43</v>
       </c>
@@ -8056,10 +8044,10 @@
       <c r="AT26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AW26" s="239" t="s">
+      <c r="AW26" s="246" t="s">
         <v>145</v>
       </c>
-      <c r="AX26" s="241"/>
+      <c r="AX26" s="248"/>
       <c r="AY26" s="26" t="s">
         <v>43</v>
       </c>
@@ -8096,10 +8084,10 @@
       <c r="BJ26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="BM26" s="239" t="s">
+      <c r="BM26" s="246" t="s">
         <v>145</v>
       </c>
-      <c r="BN26" s="241"/>
+      <c r="BN26" s="248"/>
       <c r="BO26" s="26" t="s">
         <v>43</v>
       </c>
@@ -9093,7 +9081,7 @@
       <c r="AW32" s="163">
         <v>25</v>
       </c>
-      <c r="AX32" s="273">
+      <c r="AX32" s="281">
         <v>70</v>
       </c>
       <c r="AY32" s="9" t="s">
@@ -9131,7 +9119,7 @@
       <c r="BM32" s="163">
         <v>50</v>
       </c>
-      <c r="BN32" s="273">
+      <c r="BN32" s="281">
         <v>20</v>
       </c>
       <c r="BO32" s="9" t="s">
@@ -9280,7 +9268,7 @@
         <v>148</v>
       </c>
       <c r="AW33" s="163"/>
-      <c r="AX33" s="274"/>
+      <c r="AX33" s="282"/>
       <c r="AY33" s="9" t="s">
         <v>71</v>
       </c>
@@ -9316,7 +9304,7 @@
       <c r="BM33" s="140">
         <v>10</v>
       </c>
-      <c r="BN33" s="274"/>
+      <c r="BN33" s="282"/>
       <c r="BO33" s="9" t="s">
         <v>71</v>
       </c>
@@ -9467,7 +9455,7 @@
         <v>148</v>
       </c>
       <c r="AW34" s="140"/>
-      <c r="AX34" s="275"/>
+      <c r="AX34" s="283"/>
       <c r="AY34" s="9" t="s">
         <v>81</v>
       </c>
@@ -9505,7 +9493,7 @@
       <c r="BM34" s="165">
         <v>70</v>
       </c>
-      <c r="BN34" s="275"/>
+      <c r="BN34" s="283"/>
       <c r="BO34" s="9" t="s">
         <v>81</v>
       </c>
@@ -9736,10 +9724,10 @@
       </c>
     </row>
     <row r="36" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="237" t="s">
+      <c r="B36" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="238"/>
+      <c r="C36" s="245"/>
       <c r="D36" s="9">
         <f>SUM(B28:C35)</f>
         <v>512</v>
@@ -9757,10 +9745,10 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
       <c r="O36" s="102"/>
-      <c r="R36" s="237" t="s">
+      <c r="R36" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="S36" s="238"/>
+      <c r="S36" s="245"/>
       <c r="T36" s="9">
         <f>SUM(R28:S35)</f>
         <v>182</v>
@@ -9778,10 +9766,10 @@
       <c r="AC36" s="65"/>
       <c r="AD36" s="65"/>
       <c r="AE36" s="102"/>
-      <c r="AG36" s="237" t="s">
+      <c r="AG36" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="AH36" s="238"/>
+      <c r="AH36" s="245"/>
       <c r="AI36" s="9">
         <f>SUM(AG28:AH35)</f>
         <v>360</v>
@@ -9799,10 +9787,10 @@
       <c r="AR36" s="65"/>
       <c r="AS36" s="65"/>
       <c r="AT36" s="102"/>
-      <c r="AW36" s="237" t="s">
+      <c r="AW36" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="AX36" s="238"/>
+      <c r="AX36" s="245"/>
       <c r="AY36" s="9">
         <f>SUM(AW28:AX35)</f>
         <v>200</v>
@@ -9820,10 +9808,10 @@
       <c r="BH36" s="65"/>
       <c r="BI36" s="65"/>
       <c r="BJ36" s="102"/>
-      <c r="BM36" s="237" t="s">
+      <c r="BM36" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="BN36" s="238"/>
+      <c r="BN36" s="245"/>
       <c r="BO36" s="9">
         <f>SUM(BM28:BN35)</f>
         <v>260</v>
@@ -9843,10 +9831,10 @@
     </row>
     <row r="37" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="239" t="s">
+      <c r="B38" s="246" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="241"/>
+      <c r="C38" s="248"/>
       <c r="D38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9886,10 +9874,10 @@
       <c r="P38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="S38" s="239" t="s">
+      <c r="S38" s="246" t="s">
         <v>145</v>
       </c>
-      <c r="T38" s="241"/>
+      <c r="T38" s="248"/>
       <c r="U38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9929,11 +9917,11 @@
       <c r="AG38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="AJ38" s="239" t="s">
+      <c r="AJ38" s="246" t="s">
         <v>145</v>
       </c>
-      <c r="AK38" s="240"/>
-      <c r="AL38" s="241"/>
+      <c r="AK38" s="247"/>
+      <c r="AL38" s="248"/>
       <c r="AM38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9976,13 +9964,13 @@
       <c r="AZ38" s="44"/>
       <c r="BA38" s="199">
         <f ca="1">TODAY()</f>
-        <v>45288</v>
-      </c>
-      <c r="BD38" s="239" t="s">
+        <v>45289</v>
+      </c>
+      <c r="BD38" s="246" t="s">
         <v>145</v>
       </c>
-      <c r="BE38" s="240"/>
-      <c r="BF38" s="241"/>
+      <c r="BE38" s="247"/>
+      <c r="BF38" s="248"/>
       <c r="BG38" s="26" t="s">
         <v>43</v>
       </c>
@@ -10022,11 +10010,11 @@
       <c r="BS38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="BW38" s="239" t="s">
+      <c r="BW38" s="246" t="s">
         <v>145</v>
       </c>
-      <c r="BX38" s="240"/>
-      <c r="BY38" s="241"/>
+      <c r="BX38" s="247"/>
+      <c r="BY38" s="248"/>
       <c r="BZ38" s="26" t="s">
         <v>43</v>
       </c>
@@ -10978,7 +10966,7 @@
     </row>
     <row r="44" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="163"/>
-      <c r="C44" s="273">
+      <c r="C44" s="281">
         <v>55</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -11016,10 +11004,10 @@
       <c r="P44" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S44" s="266">
+      <c r="S44" s="274">
         <v>25</v>
       </c>
-      <c r="T44" s="273">
+      <c r="T44" s="281">
         <v>55</v>
       </c>
       <c r="U44" s="9" t="s">
@@ -11028,7 +11016,7 @@
       <c r="V44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="W44" s="268" t="s">
+      <c r="W44" s="276" t="s">
         <v>105</v>
       </c>
       <c r="X44" s="83" t="s">
@@ -11057,10 +11045,10 @@
       <c r="AG44" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="AJ44" s="266">
+      <c r="AJ44" s="274">
         <v>50</v>
       </c>
-      <c r="AK44" s="273">
+      <c r="AK44" s="281">
         <v>10</v>
       </c>
       <c r="AL44" s="190"/>
@@ -11070,7 +11058,7 @@
       <c r="AN44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="AO44" s="268" t="s">
+      <c r="AO44" s="276" t="s">
         <v>105</v>
       </c>
       <c r="AP44" s="83" t="s">
@@ -11100,7 +11088,7 @@
         <v>168</v>
       </c>
       <c r="AZ44" s="49"/>
-      <c r="BD44" s="266">
+      <c r="BD44" s="274">
         <v>50</v>
       </c>
       <c r="BE44" s="208"/>
@@ -11111,7 +11099,7 @@
       <c r="BH44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="BI44" s="268" t="s">
+      <c r="BI44" s="276" t="s">
         <v>105</v>
       </c>
       <c r="BJ44" s="83" t="s">
@@ -11140,7 +11128,7 @@
       <c r="BS44" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="BW44" s="266">
+      <c r="BW44" s="274">
         <v>25</v>
       </c>
       <c r="BX44" s="208"/>
@@ -11151,7 +11139,7 @@
       <c r="CA44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="CB44" s="268" t="s">
+      <c r="CB44" s="276" t="s">
         <v>105</v>
       </c>
       <c r="CC44" s="83" t="s">
@@ -11183,7 +11171,7 @@
     </row>
     <row r="45" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="140"/>
-      <c r="C45" s="274"/>
+      <c r="C45" s="282"/>
       <c r="D45" s="9" t="s">
         <v>71</v>
       </c>
@@ -11217,15 +11205,15 @@
       <c r="P45" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S45" s="267"/>
-      <c r="T45" s="275"/>
+      <c r="S45" s="275"/>
+      <c r="T45" s="283"/>
       <c r="U45" s="9" t="s">
         <v>71</v>
       </c>
       <c r="V45" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="W45" s="269"/>
+      <c r="W45" s="277"/>
       <c r="X45" s="182" t="s">
         <v>163</v>
       </c>
@@ -11252,8 +11240,8 @@
       <c r="AG45" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="AJ45" s="267"/>
-      <c r="AK45" s="275"/>
+      <c r="AJ45" s="275"/>
+      <c r="AK45" s="283"/>
       <c r="AL45" s="191"/>
       <c r="AM45" s="9" t="s">
         <v>71</v>
@@ -11261,7 +11249,7 @@
       <c r="AN45" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="AO45" s="269"/>
+      <c r="AO45" s="277"/>
       <c r="AP45" s="182" t="s">
         <v>163</v>
       </c>
@@ -11289,7 +11277,7 @@
         <v>168</v>
       </c>
       <c r="AZ45" s="49"/>
-      <c r="BD45" s="267"/>
+      <c r="BD45" s="275"/>
       <c r="BE45" s="165">
         <v>20</v>
       </c>
@@ -11300,7 +11288,7 @@
       <c r="BH45" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="BI45" s="269"/>
+      <c r="BI45" s="277"/>
       <c r="BJ45" s="182" t="s">
         <v>163</v>
       </c>
@@ -11327,7 +11315,7 @@
       <c r="BS45" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="BW45" s="267"/>
+      <c r="BW45" s="275"/>
       <c r="BX45" s="165"/>
       <c r="BY45" s="191"/>
       <c r="BZ45" s="9" t="s">
@@ -11336,7 +11324,7 @@
       <c r="CA45" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="CB45" s="269"/>
+      <c r="CB45" s="277"/>
       <c r="CC45" s="182" t="s">
         <v>163</v>
       </c>
@@ -11366,7 +11354,7 @@
     </row>
     <row r="46" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="165"/>
-      <c r="C46" s="275"/>
+      <c r="C46" s="283"/>
       <c r="D46" s="9" t="s">
         <v>81</v>
       </c>
@@ -11793,10 +11781,10 @@
       </c>
     </row>
     <row r="48" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="237" t="s">
+      <c r="B48" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="238"/>
+      <c r="C48" s="245"/>
       <c r="D48" s="9">
         <f>SUM(B40:C47)</f>
         <v>200</v>
@@ -11815,10 +11803,10 @@
       <c r="N48" s="65"/>
       <c r="O48" s="65"/>
       <c r="P48" s="168"/>
-      <c r="S48" s="237" t="s">
+      <c r="S48" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="238"/>
+      <c r="T48" s="245"/>
       <c r="U48" s="9">
         <f>SUM(S40:T47)</f>
         <v>296</v>
@@ -11963,7 +11951,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="36:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AJ49" s="136"/>
       <c r="AK49" s="2"/>
       <c r="AL49" s="2"/>
@@ -11971,11 +11959,11 @@
       <c r="AN49" s="25"/>
       <c r="AO49" s="119"/>
       <c r="AP49" s="119"/>
-      <c r="AQ49" s="270"/>
+      <c r="AQ49" s="278"/>
       <c r="AS49" s="192"/>
       <c r="AT49" s="2"/>
-      <c r="AU49" s="231"/>
-      <c r="AV49" s="232"/>
+      <c r="AU49" s="238"/>
+      <c r="AV49" s="239"/>
       <c r="AW49" s="1"/>
       <c r="AX49" s="1"/>
       <c r="AY49" s="24"/>
@@ -11987,11 +11975,11 @@
       <c r="BH49" s="25"/>
       <c r="BI49" s="119"/>
       <c r="BJ49" s="119"/>
-      <c r="BK49" s="270"/>
+      <c r="BK49" s="278"/>
       <c r="BM49" s="192"/>
       <c r="BN49" s="2"/>
-      <c r="BO49" s="231"/>
-      <c r="BP49" s="232"/>
+      <c r="BO49" s="238"/>
+      <c r="BP49" s="239"/>
       <c r="BQ49" s="1"/>
       <c r="BR49" s="1"/>
       <c r="BS49" s="46"/>
@@ -12002,20 +11990,20 @@
       <c r="CA49" s="25"/>
       <c r="CB49" s="119"/>
       <c r="CC49" s="119"/>
-      <c r="CD49" s="270"/>
+      <c r="CD49" s="278"/>
       <c r="CF49" s="192"/>
       <c r="CG49" s="2"/>
-      <c r="CH49" s="231"/>
-      <c r="CI49" s="232"/>
+      <c r="CH49" s="238"/>
+      <c r="CI49" s="239"/>
       <c r="CJ49" s="1"/>
       <c r="CK49" s="1"/>
       <c r="CL49" s="46"/>
     </row>
-    <row r="50" spans="36:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ50" s="237" t="s">
+    <row r="50" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ50" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="AK50" s="238"/>
+      <c r="AK50" s="245"/>
       <c r="AL50" s="189" t="s">
         <v>179</v>
       </c>
@@ -12026,19 +12014,19 @@
       <c r="AN50" s="25"/>
       <c r="AO50" s="119"/>
       <c r="AP50" s="119"/>
-      <c r="AQ50" s="270"/>
+      <c r="AQ50" s="278"/>
       <c r="AS50" s="192"/>
       <c r="AT50" s="2"/>
-      <c r="AU50" s="231"/>
-      <c r="AV50" s="232"/>
+      <c r="AU50" s="238"/>
+      <c r="AV50" s="239"/>
       <c r="AW50" s="1"/>
       <c r="AX50" s="1"/>
       <c r="AY50" s="24"/>
       <c r="AZ50" s="49"/>
-      <c r="BD50" s="237" t="s">
+      <c r="BD50" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="BE50" s="238"/>
+      <c r="BE50" s="245"/>
       <c r="BF50" s="189"/>
       <c r="BG50" s="9">
         <f>SUM(BD40:BF48)</f>
@@ -12047,18 +12035,18 @@
       <c r="BH50" s="25"/>
       <c r="BI50" s="119"/>
       <c r="BJ50" s="119"/>
-      <c r="BK50" s="270"/>
+      <c r="BK50" s="278"/>
       <c r="BM50" s="192"/>
       <c r="BN50" s="2"/>
-      <c r="BO50" s="231"/>
-      <c r="BP50" s="232"/>
+      <c r="BO50" s="238"/>
+      <c r="BP50" s="239"/>
       <c r="BQ50" s="1"/>
       <c r="BR50" s="1"/>
       <c r="BS50" s="46"/>
-      <c r="BW50" s="237" t="s">
+      <c r="BW50" s="244" t="s">
         <v>4</v>
       </c>
-      <c r="BX50" s="238"/>
+      <c r="BX50" s="245"/>
       <c r="BY50" s="189"/>
       <c r="BZ50" s="9">
         <f>SUM(BW40:BY48)</f>
@@ -12067,16 +12055,63 @@
       <c r="CA50" s="25"/>
       <c r="CB50" s="119"/>
       <c r="CC50" s="119"/>
-      <c r="CD50" s="270"/>
+      <c r="CD50" s="278"/>
       <c r="CF50" s="192"/>
       <c r="CG50" s="2"/>
-      <c r="CH50" s="231"/>
-      <c r="CI50" s="232"/>
+      <c r="CH50" s="238"/>
+      <c r="CI50" s="239"/>
       <c r="CJ50" s="1"/>
       <c r="CK50" s="1"/>
       <c r="CL50" s="46"/>
     </row>
-    <row r="51" spans="36:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="246" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="247"/>
+      <c r="D51" s="248"/>
+      <c r="E51" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="H51" s="214" t="s">
+        <v>195</v>
+      </c>
+      <c r="I51" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="J51" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L51" s="171" t="s">
+        <v>38</v>
+      </c>
+      <c r="M51" s="171" t="s">
+        <v>92</v>
+      </c>
+      <c r="N51" s="153" t="s">
+        <v>68</v>
+      </c>
+      <c r="O51" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="P51" s="156" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q51" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="R51" s="36" t="s">
+        <v>108</v>
+      </c>
       <c r="AJ51" s="200"/>
       <c r="AK51" s="116"/>
       <c r="AL51" s="116"/>
@@ -12084,14 +12119,14 @@
       <c r="AN51" s="114"/>
       <c r="AO51" s="201"/>
       <c r="AP51" s="202"/>
-      <c r="AQ51" s="271"/>
+      <c r="AQ51" s="279"/>
       <c r="AR51" s="201"/>
       <c r="AS51" s="203"/>
       <c r="AT51" s="116" t="s">
         <v>160</v>
       </c>
-      <c r="AU51" s="272"/>
-      <c r="AV51" s="265"/>
+      <c r="AU51" s="280"/>
+      <c r="AV51" s="273"/>
       <c r="AW51" s="65"/>
       <c r="AX51" s="65"/>
       <c r="AY51" s="115"/>
@@ -12103,14 +12138,14 @@
       <c r="BH51" s="114"/>
       <c r="BI51" s="201"/>
       <c r="BJ51" s="202"/>
-      <c r="BK51" s="271"/>
+      <c r="BK51" s="279"/>
       <c r="BL51" s="201"/>
       <c r="BM51" s="203"/>
       <c r="BN51" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="BO51" s="272"/>
-      <c r="BP51" s="265"/>
+      <c r="BO51" s="280"/>
+      <c r="BP51" s="273"/>
       <c r="BQ51" s="65"/>
       <c r="BR51" s="65"/>
       <c r="BS51" s="168"/>
@@ -12121,20 +12156,633 @@
       <c r="CA51" s="114"/>
       <c r="CB51" s="201"/>
       <c r="CC51" s="202"/>
-      <c r="CD51" s="271"/>
+      <c r="CD51" s="279"/>
       <c r="CE51" s="201"/>
       <c r="CF51" s="203" t="s">
         <v>180</v>
       </c>
       <c r="CG51" s="79"/>
-      <c r="CH51" s="272"/>
-      <c r="CI51" s="265"/>
+      <c r="CH51" s="280"/>
+      <c r="CI51" s="273"/>
       <c r="CJ51" s="65"/>
       <c r="CK51" s="65"/>
       <c r="CL51" s="168"/>
     </row>
+    <row r="52" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="136"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="2"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="117"/>
+      <c r="H52" s="192"/>
+      <c r="I52" s="117"/>
+      <c r="J52" s="117"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="152"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="46"/>
+    </row>
+    <row r="53" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="140">
+        <v>10</v>
+      </c>
+      <c r="C53" s="205">
+        <v>10</v>
+      </c>
+      <c r="D53" s="164"/>
+      <c r="E53" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F53" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="213" t="s">
+        <v>187</v>
+      </c>
+      <c r="H53" s="194" t="s">
+        <v>185</v>
+      </c>
+      <c r="I53" s="83"/>
+      <c r="J53" s="224" t="s">
+        <v>156</v>
+      </c>
+      <c r="K53" s="143" t="s">
+        <v>193</v>
+      </c>
+      <c r="L53" s="176" t="s">
+        <v>156</v>
+      </c>
+      <c r="M53" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="N53" s="154">
+        <v>0.4375</v>
+      </c>
+      <c r="O53" s="1"/>
+      <c r="P53" s="154">
+        <v>0.4375</v>
+      </c>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="217">
+        <v>20</v>
+      </c>
+      <c r="C54" s="206"/>
+      <c r="D54" s="206"/>
+      <c r="E54" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="213" t="s">
+        <v>165</v>
+      </c>
+      <c r="H54" s="194" t="s">
+        <v>185</v>
+      </c>
+      <c r="I54" s="167" t="s">
+        <v>142</v>
+      </c>
+      <c r="J54" s="224" t="s">
+        <v>85</v>
+      </c>
+      <c r="K54" s="143" t="s">
+        <v>119</v>
+      </c>
+      <c r="L54" s="212" t="s">
+        <v>137</v>
+      </c>
+      <c r="M54" s="197" t="s">
+        <v>86</v>
+      </c>
+      <c r="N54" s="154">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="O54" s="1"/>
+      <c r="P54" s="154">
+        <v>0.4375</v>
+      </c>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="218"/>
+      <c r="C55" s="207">
+        <v>30</v>
+      </c>
+      <c r="D55" s="127">
+        <v>20</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F55" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="213" t="s">
+        <v>165</v>
+      </c>
+      <c r="H55" s="194"/>
+      <c r="I55" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="J55" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="L55" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="M55" s="176" t="s">
+        <v>69</v>
+      </c>
+      <c r="N55" s="154">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="O55" s="1"/>
+      <c r="P55" s="154">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="165"/>
+      <c r="C56" s="207">
+        <v>20</v>
+      </c>
+      <c r="D56" s="127">
+        <v>10</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F56" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="H56" s="194" t="s">
+        <v>185</v>
+      </c>
+      <c r="I56" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="J56" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="K56" s="143" t="s">
+        <v>192</v>
+      </c>
+      <c r="L56" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M56" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="N56" s="154">
+        <v>0.8125</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P56" s="154">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="219"/>
+      <c r="C57" s="208">
+        <v>50</v>
+      </c>
+      <c r="D57" s="190"/>
+      <c r="E57" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F57" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="213"/>
+      <c r="H57" s="194"/>
+      <c r="I57" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="J57" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="K57" s="187" t="s">
+        <v>196</v>
+      </c>
+      <c r="L57" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="M57" s="188" t="s">
+        <v>65</v>
+      </c>
+      <c r="N57" s="154">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="O57" s="1"/>
+      <c r="P57" s="154">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="163">
+        <v>14</v>
+      </c>
+      <c r="C58" s="165"/>
+      <c r="D58" s="177"/>
+      <c r="E58" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="213" t="s">
+        <v>165</v>
+      </c>
+      <c r="H58" s="194" t="s">
+        <v>185</v>
+      </c>
+      <c r="I58" s="223" t="s">
+        <v>163</v>
+      </c>
+      <c r="J58" s="224" t="s">
+        <v>170</v>
+      </c>
+      <c r="K58" s="143" t="s">
+        <v>191</v>
+      </c>
+      <c r="L58" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="M58" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="N58" s="154">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="O58" s="1"/>
+      <c r="P58" s="154">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="220"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="177">
+        <v>7</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" s="213"/>
+      <c r="H59" s="169"/>
+      <c r="I59" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="J59" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="K59" s="144" t="s">
+        <v>122</v>
+      </c>
+      <c r="L59" s="222"/>
+      <c r="M59" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="N59" s="154">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="O59" s="1"/>
+      <c r="P59" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="60" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="221">
+        <v>5</v>
+      </c>
+      <c r="C60" s="209"/>
+      <c r="D60" s="184"/>
+      <c r="E60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F60" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="213" t="s">
+        <v>116</v>
+      </c>
+      <c r="H60" s="215" t="s">
+        <v>198</v>
+      </c>
+      <c r="I60" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="J60" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="K60" s="186" t="s">
+        <v>110</v>
+      </c>
+      <c r="L60" s="160" t="s">
+        <v>78</v>
+      </c>
+      <c r="M60" s="198" t="s">
+        <v>161</v>
+      </c>
+      <c r="N60" s="154">
+        <v>0.8125</v>
+      </c>
+      <c r="O60" s="1"/>
+      <c r="P60" s="154">
+        <v>0.8125</v>
+      </c>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="165"/>
+      <c r="C61" s="205">
+        <v>55</v>
+      </c>
+      <c r="D61" s="164"/>
+      <c r="E61" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="213"/>
+      <c r="H61" s="194" t="s">
+        <v>190</v>
+      </c>
+      <c r="I61" s="224" t="s">
+        <v>123</v>
+      </c>
+      <c r="J61" s="225" t="s">
+        <v>62</v>
+      </c>
+      <c r="K61" s="143" t="s">
+        <v>197</v>
+      </c>
+      <c r="L61" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="M61" s="188" t="s">
+        <v>181</v>
+      </c>
+      <c r="N61" s="154">
+        <v>0.6875</v>
+      </c>
+      <c r="O61" s="24"/>
+      <c r="P61" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="36">
+        <v>1</v>
+      </c>
+      <c r="C62" s="205"/>
+      <c r="D62" s="15">
+        <v>3</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F62" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="228" t="s">
+        <v>186</v>
+      </c>
+      <c r="H62" s="195" t="s">
+        <v>190</v>
+      </c>
+      <c r="I62" s="183" t="s">
+        <v>155</v>
+      </c>
+      <c r="J62" s="183" t="s">
+        <v>85</v>
+      </c>
+      <c r="K62" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="L62" s="160" t="s">
+        <v>62</v>
+      </c>
+      <c r="M62" s="229" t="s">
+        <v>90</v>
+      </c>
+      <c r="N62" s="154">
+        <v>0.6875</v>
+      </c>
+      <c r="P62" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="205"/>
+      <c r="C63" s="205">
+        <v>10</v>
+      </c>
+      <c r="D63" s="184">
+        <v>30</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="213"/>
+      <c r="H63" s="194"/>
+      <c r="I63" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="J63" s="224"/>
+      <c r="K63" s="143" t="s">
+        <v>200</v>
+      </c>
+      <c r="L63" s="176"/>
+      <c r="M63" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N63" s="154">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="P63" s="154">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="2:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="177">
+        <v>10</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F64" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="231"/>
+      <c r="H64" s="232"/>
+      <c r="I64" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="J64" s="233"/>
+      <c r="K64" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="L64" s="74"/>
+      <c r="M64" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="N64" s="154">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="O64" t="s">
+        <v>126</v>
+      </c>
+      <c r="P64" s="154">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="136"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="2"/>
+      <c r="F65" s="234"/>
+      <c r="G65" s="119"/>
+      <c r="H65" s="216"/>
+      <c r="I65" s="119"/>
+      <c r="J65" s="117"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="152"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="46"/>
+    </row>
+    <row r="66" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="244" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="245"/>
+      <c r="D66" s="189"/>
+      <c r="E66" s="9">
+        <f>SUM(B53:D64)</f>
+        <v>305</v>
+      </c>
+      <c r="F66" s="26"/>
+      <c r="G66" s="119"/>
+      <c r="H66" s="216"/>
+      <c r="I66" s="119"/>
+      <c r="J66" s="117"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="238"/>
+      <c r="O66" s="239"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="46"/>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B67" s="235"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="20"/>
+      <c r="F67" s="226"/>
+      <c r="G67" s="119"/>
+      <c r="H67" s="216"/>
+      <c r="I67" s="119"/>
+      <c r="J67" s="237"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="238"/>
+      <c r="O67" s="239"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="46"/>
+    </row>
+    <row r="68" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="236"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="227"/>
+      <c r="G68" s="137"/>
+      <c r="H68" s="203"/>
+      <c r="I68" s="137"/>
+      <c r="J68" s="272"/>
+      <c r="K68" s="50"/>
+      <c r="L68" s="79"/>
+      <c r="M68" s="79"/>
+      <c r="N68" s="230"/>
+      <c r="O68" s="65"/>
+      <c r="P68" s="65"/>
+      <c r="Q68" s="65"/>
+      <c r="R68" s="168"/>
+    </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="50">
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="C44:C46"/>
     <mergeCell ref="B48:C48"/>
@@ -12180,6 +12828,11 @@
     <mergeCell ref="CB44:CB45"/>
     <mergeCell ref="CD49:CD51"/>
     <mergeCell ref="CH49:CH51"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="J67:J68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
